--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7305,6 +7305,30 @@
         <v>1.131</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7329,6 +7329,102 @@
         <v>1.13</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1.135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1.137</v>
+        <v>1.136</v>
       </c>
       <c r="D291" t="n">
         <v>1.138</v>
@@ -7423,6 +7423,30 @@
       </c>
       <c r="F291" t="n">
         <v>1.135</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1.132</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1.137</v>
+        <v>1.136</v>
       </c>
       <c r="D292" t="n">
         <v>1.137</v>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9579</v>
+        <v>0.9502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9607</v>
+        <v>0.9530999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9627</v>
+        <v>0.955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.955</v>
+        <v>0.9474</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9598</v>
+        <v>0.9522</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9617</v>
+        <v>0.9540999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.954</v>
+        <v>0.9464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9579</v>
+        <v>0.9502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9502</v>
+        <v>0.9426</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="E5" t="n">
-        <v>0.954</v>
+        <v>0.9464</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9598</v>
+        <v>0.9522</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9510999999999999</v>
+        <v>0.9436</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9405</v>
+        <v>0.9331</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9482</v>
+        <v>0.9407</v>
       </c>
       <c r="E8" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9463</v>
+        <v>0.9388</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9405</v>
+        <v>0.9331</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9482</v>
+        <v>0.9407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9559</v>
+        <v>0.9483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9473</v>
+        <v>0.9397</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.953</v>
+        <v>0.9455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9482</v>
+        <v>0.9407</v>
       </c>
       <c r="E11" t="n">
-        <v>0.954</v>
+        <v>0.9464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9444</v>
+        <v>0.9369</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9502</v>
+        <v>0.9426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.954</v>
+        <v>0.9464</v>
       </c>
       <c r="E12" t="n">
-        <v>0.955</v>
+        <v>0.9474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9473</v>
+        <v>0.9397</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.954</v>
+        <v>0.9464</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9502</v>
+        <v>0.9426</v>
       </c>
       <c r="E13" t="n">
-        <v>0.955</v>
+        <v>0.9474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9646</v>
+        <v>0.9569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.955</v>
+        <v>0.9474</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9694</v>
+        <v>0.9617</v>
       </c>
       <c r="F14" t="n">
-        <v>0.954</v>
+        <v>0.9464</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9742</v>
+        <v>0.9665</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9627</v>
+        <v>0.955</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9781</v>
+        <v>0.9703000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9627</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9858</v>
+        <v>0.9779</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9742</v>
+        <v>0.9665</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9867</v>
+        <v>0.9789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9742</v>
+        <v>0.9665</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9887</v>
+        <v>0.9808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9819</v>
+        <v>0.9741</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0012</v>
+        <v>0.9932</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9819</v>
+        <v>0.9741</v>
       </c>
     </row>
     <row r="18">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.98</v>
+        <v>0.9722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9887</v>
+        <v>0.9808</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9887</v>
+        <v>0.9808</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9781</v>
+        <v>0.9703000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9858</v>
+        <v>0.9779</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9752</v>
+        <v>0.9674</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9867</v>
+        <v>0.9789</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9723000000000001</v>
+        <v>0.9646</v>
       </c>
     </row>
     <row r="20">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9781</v>
+        <v>0.9703000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9819</v>
+        <v>0.9741</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9867</v>
+        <v>0.9789</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9781</v>
+        <v>0.9703000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9752</v>
+        <v>0.9674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.98</v>
+        <v>0.9722</v>
       </c>
       <c r="E21" t="n">
-        <v>0.98</v>
+        <v>0.9722</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9723000000000001</v>
+        <v>0.9646</v>
       </c>
     </row>
     <row r="22">
@@ -957,16 +957,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9752</v>
+        <v>0.9674</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.9636</v>
       </c>
       <c r="E22" t="n">
-        <v>0.981</v>
+        <v>0.9732</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9704</v>
+        <v>0.9627</v>
       </c>
     </row>
     <row r="23">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9848</v>
+        <v>0.977</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9781</v>
+        <v>0.9703000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9848</v>
+        <v>0.977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9761</v>
+        <v>0.9684</v>
       </c>
     </row>
     <row r="24">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9887</v>
+        <v>0.9808</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9819</v>
+        <v>0.9741</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9896</v>
+        <v>0.9818</v>
       </c>
       <c r="F24" t="n">
-        <v>0.98</v>
+        <v>0.9722</v>
       </c>
     </row>
     <row r="25">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9771</v>
+        <v>0.9694</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9867</v>
+        <v>0.9789</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9915</v>
+        <v>0.9837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9771</v>
+        <v>0.9694</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9704</v>
+        <v>0.9627</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9771</v>
+        <v>0.9694</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9771</v>
+        <v>0.9694</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9444</v>
+        <v>0.9369</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9646</v>
+        <v>0.9569</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9694</v>
+        <v>0.9617</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9694</v>
+        <v>0.9617</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9559</v>
+        <v>0.9483</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9424</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9627</v>
+        <v>0.955</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9636</v>
+        <v>0.956</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9338</v>
+        <v>0.9264</v>
       </c>
     </row>
     <row r="29">
@@ -1125,16 +1125,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9482</v>
+        <v>0.9407</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9338</v>
+        <v>0.9264</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9502</v>
+        <v>0.9426</v>
       </c>
       <c r="F29" t="n">
-        <v>0.928</v>
+        <v>0.9206</v>
       </c>
     </row>
     <row r="30">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9675</v>
+        <v>0.9598</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9492</v>
+        <v>0.9417</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9684</v>
+        <v>0.9608</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9473</v>
+        <v>0.9397</v>
       </c>
     </row>
     <row r="31">
@@ -1173,16 +1173,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9964</v>
+        <v>0.9885</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9694</v>
+        <v>0.9617</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9973</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9684</v>
+        <v>0.9608</v>
       </c>
     </row>
     <row r="32">
@@ -1197,16 +1197,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.0089</v>
+        <v>1.0009</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9935</v>
+        <v>0.9856</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0098</v>
+        <v>1.0018</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9906</v>
+        <v>0.9827</v>
       </c>
     </row>
     <row r="33">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.0137</v>
+        <v>1.0056</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0118</v>
+        <v>1.0037</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0204</v>
+        <v>1.0123</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0079</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="34">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.0002</v>
+        <v>0.9923</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0108</v>
+        <v>1.0028</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0156</v>
+        <v>1.0076</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9992</v>
+        <v>0.9913</v>
       </c>
     </row>
     <row r="35">
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.0012</v>
+        <v>0.9932</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9915</v>
+        <v>0.9837</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0089</v>
+        <v>1.0009</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9915</v>
+        <v>0.9837</v>
       </c>
     </row>
     <row r="36">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9877</v>
+        <v>0.9799</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9973</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9983</v>
+        <v>0.9903999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9838</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="37">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9906</v>
+        <v>0.9827</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9925</v>
+        <v>0.9846</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0041</v>
+        <v>0.9961</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9704</v>
+        <v>0.9627</v>
       </c>
     </row>
     <row r="38">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9877</v>
+        <v>0.9799</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9887</v>
+        <v>0.9808</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9973</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9694</v>
+        <v>0.9617</v>
       </c>
     </row>
     <row r="39">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.0041</v>
+        <v>0.9961</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9819</v>
+        <v>0.9741</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0079</v>
+        <v>0.9999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.98</v>
+        <v>0.9722</v>
       </c>
     </row>
     <row r="40">
@@ -1389,16 +1389,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.0137</v>
+        <v>1.0056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9973</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0137</v>
+        <v>1.0056</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9973</v>
+        <v>0.9893999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1413,16 +1413,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.0127</v>
+        <v>1.0047</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0137</v>
+        <v>1.0056</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0214</v>
+        <v>1.0133</v>
       </c>
       <c r="F41" t="n">
-        <v>1.006</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="42">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0204</v>
+        <v>1.0123</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0406</v>
+        <v>1.0324</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0108</v>
+        <v>1.0028</v>
       </c>
     </row>
     <row r="43">
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="F43" t="n">
-        <v>1.032</v>
+        <v>1.0238</v>
       </c>
     </row>
     <row r="44">
@@ -1485,16 +1485,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0657</v>
+        <v>1.0572</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
     </row>
     <row r="45">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.0686</v>
+        <v>1.0601</v>
       </c>
       <c r="D45" t="n">
-        <v>1.0503</v>
+        <v>1.0419</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0686</v>
+        <v>1.0601</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0503</v>
+        <v>1.0419</v>
       </c>
     </row>
     <row r="46">
@@ -1533,16 +1533,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.0657</v>
+        <v>1.0572</v>
       </c>
       <c r="D46" t="n">
-        <v>1.0686</v>
+        <v>1.0601</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0763</v>
+        <v>1.0677</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0618</v>
+        <v>1.0534</v>
       </c>
     </row>
     <row r="47">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.0416</v>
+        <v>1.0333</v>
       </c>
       <c r="D47" t="n">
-        <v>1.0637</v>
+        <v>1.0553</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0657</v>
+        <v>1.0572</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
     </row>
     <row r="48">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0416</v>
+        <v>1.0333</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0368</v>
+        <v>1.0286</v>
       </c>
     </row>
     <row r="49">
@@ -1605,16 +1605,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.0406</v>
+        <v>1.0324</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0416</v>
+        <v>1.0333</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0378</v>
+        <v>1.0295</v>
       </c>
     </row>
     <row r="50">
@@ -1629,16 +1629,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0406</v>
+        <v>1.0324</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0503</v>
+        <v>1.0419</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0378</v>
+        <v>1.0295</v>
       </c>
     </row>
     <row r="51">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0435</v>
+        <v>1.0352</v>
       </c>
     </row>
     <row r="52">
@@ -1677,16 +1677,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.0541</v>
+        <v>1.0458</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0455</v>
+        <v>1.0372</v>
       </c>
       <c r="E52" t="n">
-        <v>1.056</v>
+        <v>1.0477</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
     </row>
     <row r="53">
@@ -1701,16 +1701,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.0637</v>
+        <v>1.0553</v>
       </c>
       <c r="D53" t="n">
-        <v>1.056</v>
+        <v>1.0477</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0647</v>
+        <v>1.0563</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
     </row>
     <row r="54">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.0628</v>
+        <v>1.0543</v>
       </c>
       <c r="D54" t="n">
-        <v>1.0676</v>
+        <v>1.0591</v>
       </c>
       <c r="E54" t="n">
-        <v>1.083</v>
+        <v>1.0744</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0599</v>
+        <v>1.0515</v>
       </c>
     </row>
     <row r="55">
@@ -1749,16 +1749,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.0666</v>
+        <v>1.0582</v>
       </c>
       <c r="D55" t="n">
-        <v>1.0628</v>
+        <v>1.0543</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0743</v>
+        <v>1.0658</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0628</v>
+        <v>1.0543</v>
       </c>
     </row>
     <row r="56">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.0724</v>
+        <v>1.0639</v>
       </c>
       <c r="D56" t="n">
-        <v>1.0666</v>
+        <v>1.0582</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0724</v>
+        <v>1.0639</v>
       </c>
       <c r="F56" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
     </row>
     <row r="57">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.0647</v>
+        <v>1.0563</v>
       </c>
       <c r="D57" t="n">
-        <v>1.0686</v>
+        <v>1.0601</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0724</v>
+        <v>1.0639</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0551</v>
+        <v>1.0467</v>
       </c>
     </row>
     <row r="58">
@@ -1821,16 +1821,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.0406</v>
+        <v>1.0324</v>
       </c>
       <c r="D58" t="n">
-        <v>1.0609</v>
+        <v>1.0524</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0609</v>
+        <v>1.0524</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
     </row>
     <row r="59">
@@ -1845,16 +1845,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.0349</v>
+        <v>1.0267</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0378</v>
+        <v>1.0295</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0397</v>
+        <v>1.0314</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0272</v>
+        <v>1.019</v>
       </c>
     </row>
     <row r="60">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.0397</v>
+        <v>1.0314</v>
       </c>
       <c r="D60" t="n">
-        <v>1.0329</v>
+        <v>1.0247</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0329</v>
+        <v>1.0247</v>
       </c>
     </row>
     <row r="61">
@@ -1893,16 +1893,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.0416</v>
+        <v>1.0333</v>
       </c>
       <c r="D61" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0339</v>
+        <v>1.0257</v>
       </c>
     </row>
     <row r="62">
@@ -1917,16 +1917,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
       <c r="D62" t="n">
-        <v>1.0406</v>
+        <v>1.0324</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0368</v>
+        <v>1.0286</v>
       </c>
     </row>
     <row r="63">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.0397</v>
+        <v>1.0314</v>
       </c>
       <c r="D63" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0455</v>
+        <v>1.0372</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0368</v>
+        <v>1.0286</v>
       </c>
     </row>
     <row r="64">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.0464</v>
+        <v>1.0381</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0397</v>
+        <v>1.0314</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0464</v>
+        <v>1.0381</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0329</v>
+        <v>1.0247</v>
       </c>
     </row>
     <row r="65">
@@ -1989,16 +1989,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="D65" t="n">
-        <v>1.0455</v>
+        <v>1.0372</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0406</v>
+        <v>1.0324</v>
       </c>
     </row>
     <row r="66">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.0464</v>
+        <v>1.0381</v>
       </c>
       <c r="D66" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0503</v>
+        <v>1.0419</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
     </row>
     <row r="67">
@@ -2037,16 +2037,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.0474</v>
+        <v>1.0391</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0445</v>
+        <v>1.0362</v>
       </c>
       <c r="E67" t="n">
-        <v>1.058</v>
+        <v>1.0496</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
     </row>
     <row r="68">
@@ -2061,16 +2061,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.0493</v>
+        <v>1.041</v>
       </c>
       <c r="D68" t="n">
-        <v>1.0464</v>
+        <v>1.0381</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0416</v>
+        <v>1.0333</v>
       </c>
     </row>
     <row r="69">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="D69" t="n">
-        <v>1.0483</v>
+        <v>1.04</v>
       </c>
       <c r="E69" t="n">
-        <v>1.056</v>
+        <v>1.0477</v>
       </c>
       <c r="F69" t="n">
-        <v>1.0464</v>
+        <v>1.0381</v>
       </c>
     </row>
     <row r="70">
@@ -2109,16 +2109,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.0455</v>
+        <v>1.0372</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0455</v>
+        <v>1.0372</v>
       </c>
       <c r="E70" t="n">
-        <v>1.0512</v>
+        <v>1.0429</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0387</v>
+        <v>1.0305</v>
       </c>
     </row>
     <row r="71">
@@ -2133,16 +2133,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.057</v>
+        <v>1.0486</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0455</v>
+        <v>1.0372</v>
       </c>
       <c r="E71" t="n">
-        <v>1.058</v>
+        <v>1.0496</v>
       </c>
       <c r="F71" t="n">
-        <v>1.0426</v>
+        <v>1.0343</v>
       </c>
     </row>
     <row r="72">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.0589</v>
+        <v>1.0505</v>
       </c>
       <c r="D72" t="n">
-        <v>1.0551</v>
+        <v>1.0467</v>
       </c>
       <c r="E72" t="n">
-        <v>1.0609</v>
+        <v>1.0524</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0541</v>
+        <v>1.0458</v>
       </c>
     </row>
     <row r="73">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.0666</v>
+        <v>1.0582</v>
       </c>
       <c r="D73" t="n">
-        <v>1.0618</v>
+        <v>1.0534</v>
       </c>
       <c r="E73" t="n">
-        <v>1.0695</v>
+        <v>1.061</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0599</v>
+        <v>1.0515</v>
       </c>
     </row>
     <row r="74">
@@ -2205,16 +2205,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.0772</v>
+        <v>1.0687</v>
       </c>
       <c r="D74" t="n">
-        <v>1.0676</v>
+        <v>1.0591</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0791</v>
+        <v>1.0706</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0637</v>
+        <v>1.0553</v>
       </c>
     </row>
     <row r="75">
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.0811</v>
+        <v>1.0725</v>
       </c>
       <c r="D75" t="n">
-        <v>1.0791</v>
+        <v>1.0706</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0888</v>
+        <v>1.0801</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0686</v>
+        <v>1.0601</v>
       </c>
     </row>
     <row r="76">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.0763</v>
+        <v>1.0677</v>
       </c>
       <c r="D76" t="n">
-        <v>1.0801</v>
+        <v>1.0715</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0868</v>
+        <v>1.0782</v>
       </c>
       <c r="F76" t="n">
-        <v>1.0705</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="77">
@@ -2277,16 +2277,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.0782</v>
+        <v>1.0696</v>
       </c>
       <c r="D77" t="n">
-        <v>1.0763</v>
+        <v>1.0677</v>
       </c>
       <c r="E77" t="n">
-        <v>1.083</v>
+        <v>1.0744</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0724</v>
+        <v>1.0639</v>
       </c>
     </row>
     <row r="78">
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.0888</v>
+        <v>1.0801</v>
       </c>
       <c r="D78" t="n">
-        <v>1.0763</v>
+        <v>1.0677</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0936</v>
+        <v>1.0849</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0714</v>
+        <v>1.0629</v>
       </c>
     </row>
     <row r="79">
@@ -2325,16 +2325,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.0868</v>
+        <v>1.0782</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0868</v>
+        <v>1.0782</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0917</v>
+        <v>1.083</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0811</v>
+        <v>1.0725</v>
       </c>
     </row>
     <row r="80">
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="D80" t="n">
-        <v>1.0868</v>
+        <v>1.0782</v>
       </c>
       <c r="E80" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="F80" t="n">
-        <v>1.084</v>
+        <v>1.0754</v>
       </c>
     </row>
     <row r="81">
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1023</v>
+        <v>1.0935</v>
       </c>
       <c r="E81" t="n">
-        <v>1.1196</v>
+        <v>1.1107</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1003</v>
+        <v>1.0916</v>
       </c>
     </row>
     <row r="82">
@@ -2397,16 +2397,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1.1292</v>
+        <v>1.1202</v>
       </c>
       <c r="D82" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="E82" t="n">
-        <v>1.1331</v>
+        <v>1.1241</v>
       </c>
       <c r="F82" t="n">
-        <v>1.1042</v>
+        <v>1.0954</v>
       </c>
     </row>
     <row r="83">
@@ -2421,16 +2421,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
       <c r="D83" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
       <c r="E83" t="n">
-        <v>1.1485</v>
+        <v>1.1393</v>
       </c>
       <c r="F83" t="n">
-        <v>1.1273</v>
+        <v>1.1183</v>
       </c>
     </row>
     <row r="84">
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1273</v>
+        <v>1.1183</v>
       </c>
       <c r="E84" t="n">
-        <v>1.1456</v>
+        <v>1.1365</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
     </row>
     <row r="85">
@@ -2469,16 +2469,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.1128</v>
+        <v>1.104</v>
       </c>
       <c r="D85" t="n">
-        <v>1.1359</v>
+        <v>1.1269</v>
       </c>
       <c r="E85" t="n">
-        <v>1.1408</v>
+        <v>1.1317</v>
       </c>
       <c r="F85" t="n">
-        <v>1.1109</v>
+        <v>1.1021</v>
       </c>
     </row>
     <row r="86">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.0945</v>
+        <v>1.0859</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1071</v>
+        <v>1.0983</v>
       </c>
       <c r="E86" t="n">
-        <v>1.1119</v>
+        <v>1.1031</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0926</v>
+        <v>1.084</v>
       </c>
     </row>
     <row r="87">
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.0945</v>
+        <v>1.0859</v>
       </c>
       <c r="D87" t="n">
-        <v>1.0974</v>
+        <v>1.0887</v>
       </c>
       <c r="E87" t="n">
-        <v>1.1003</v>
+        <v>1.0916</v>
       </c>
       <c r="F87" t="n">
-        <v>1.084</v>
+        <v>1.0754</v>
       </c>
     </row>
     <row r="88">
@@ -2541,16 +2541,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.1003</v>
+        <v>1.0916</v>
       </c>
       <c r="D88" t="n">
-        <v>1.0907</v>
+        <v>1.082</v>
       </c>
       <c r="E88" t="n">
-        <v>1.1032</v>
+        <v>1.0945</v>
       </c>
       <c r="F88" t="n">
-        <v>1.0888</v>
+        <v>1.0801</v>
       </c>
     </row>
     <row r="89">
@@ -2565,16 +2565,16 @@
         </is>
       </c>
       <c r="C89" t="n">
+        <v>1.0792</v>
+      </c>
+      <c r="D89" t="n">
         <v>1.0878</v>
       </c>
-      <c r="D89" t="n">
-        <v>1.0965</v>
-      </c>
       <c r="E89" t="n">
-        <v>1.1023</v>
+        <v>1.0935</v>
       </c>
       <c r="F89" t="n">
-        <v>1.084</v>
+        <v>1.0754</v>
       </c>
     </row>
     <row r="90">
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.084</v>
+        <v>1.0754</v>
       </c>
       <c r="D90" t="n">
-        <v>1.0888</v>
+        <v>1.0801</v>
       </c>
       <c r="E90" t="n">
-        <v>1.0888</v>
+        <v>1.0801</v>
       </c>
       <c r="F90" t="n">
-        <v>1.0714</v>
+        <v>1.0629</v>
       </c>
     </row>
     <row r="91">
@@ -2613,16 +2613,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.0907</v>
+        <v>1.082</v>
       </c>
       <c r="D91" t="n">
-        <v>1.083</v>
+        <v>1.0744</v>
       </c>
       <c r="E91" t="n">
-        <v>1.0936</v>
+        <v>1.0849</v>
       </c>
       <c r="F91" t="n">
-        <v>1.0782</v>
+        <v>1.0696</v>
       </c>
     </row>
     <row r="92">
@@ -2637,16 +2637,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.0984</v>
+        <v>1.0897</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0907</v>
+        <v>1.082</v>
       </c>
       <c r="E92" t="n">
-        <v>1.0994</v>
+        <v>1.0906</v>
       </c>
       <c r="F92" t="n">
-        <v>1.0849</v>
+        <v>1.0763</v>
       </c>
     </row>
     <row r="93">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.0984</v>
+        <v>1.0897</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0984</v>
+        <v>1.0897</v>
       </c>
       <c r="E93" t="n">
-        <v>1.0984</v>
+        <v>1.0897</v>
       </c>
       <c r="F93" t="n">
-        <v>1.0907</v>
+        <v>1.082</v>
       </c>
     </row>
     <row r="94">
@@ -2685,16 +2685,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.1032</v>
+        <v>1.0945</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0974</v>
+        <v>1.0887</v>
       </c>
       <c r="E94" t="n">
-        <v>1.1071</v>
+        <v>1.0983</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0955</v>
+        <v>1.0868</v>
       </c>
     </row>
     <row r="95">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.1109</v>
+        <v>1.1021</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1042</v>
+        <v>1.0954</v>
       </c>
       <c r="E95" t="n">
-        <v>1.1109</v>
+        <v>1.1021</v>
       </c>
       <c r="F95" t="n">
-        <v>1.1003</v>
+        <v>1.0916</v>
       </c>
     </row>
     <row r="96">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.1148</v>
+        <v>1.1059</v>
       </c>
       <c r="D96" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="E96" t="n">
-        <v>1.1167</v>
+        <v>1.1078</v>
       </c>
       <c r="F96" t="n">
-        <v>1.1071</v>
+        <v>1.0983</v>
       </c>
     </row>
     <row r="97">
@@ -2757,16 +2757,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="D97" t="n">
-        <v>1.1148</v>
+        <v>1.1059</v>
       </c>
       <c r="E97" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="F97" t="n">
-        <v>1.1061</v>
+        <v>1.0973</v>
       </c>
     </row>
     <row r="98">
@@ -2781,16 +2781,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.1215</v>
+        <v>1.1126</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1254</v>
+        <v>1.1164</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1254</v>
+        <v>1.1164</v>
       </c>
       <c r="F98" t="n">
-        <v>1.1138</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="99">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
       <c r="D99" t="n">
-        <v>1.1157</v>
+        <v>1.1069</v>
       </c>
       <c r="E99" t="n">
-        <v>1.1234</v>
+        <v>1.1145</v>
       </c>
       <c r="F99" t="n">
-        <v>1.1138</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="100">
@@ -2829,16 +2829,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.1215</v>
+        <v>1.1126</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
       <c r="E100" t="n">
-        <v>1.1234</v>
+        <v>1.1145</v>
       </c>
       <c r="F100" t="n">
-        <v>1.1148</v>
+        <v>1.1059</v>
       </c>
     </row>
     <row r="101">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.1273</v>
+        <v>1.1183</v>
       </c>
       <c r="D101" t="n">
-        <v>1.1215</v>
+        <v>1.1126</v>
       </c>
       <c r="E101" t="n">
-        <v>1.1282</v>
+        <v>1.1193</v>
       </c>
       <c r="F101" t="n">
-        <v>1.1167</v>
+        <v>1.1078</v>
       </c>
     </row>
     <row r="102">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.1388</v>
+        <v>1.1298</v>
       </c>
       <c r="D102" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="E102" t="n">
-        <v>1.1417</v>
+        <v>1.1327</v>
       </c>
       <c r="F102" t="n">
-        <v>1.1234</v>
+        <v>1.1145</v>
       </c>
     </row>
     <row r="103">
@@ -2901,16 +2901,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.1417</v>
+        <v>1.1327</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1379</v>
+        <v>1.1288</v>
       </c>
       <c r="E103" t="n">
-        <v>1.1446</v>
+        <v>1.1355</v>
       </c>
       <c r="F103" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="104">
@@ -2925,16 +2925,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.1417</v>
+        <v>1.1327</v>
       </c>
       <c r="D104" t="n">
-        <v>1.1417</v>
+        <v>1.1327</v>
       </c>
       <c r="E104" t="n">
-        <v>1.1494</v>
+        <v>1.1403</v>
       </c>
       <c r="F104" t="n">
-        <v>1.1388</v>
+        <v>1.1298</v>
       </c>
     </row>
     <row r="105">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="D105" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
       <c r="E105" t="n">
-        <v>1.1427</v>
+        <v>1.1336</v>
       </c>
       <c r="F105" t="n">
-        <v>1.1234</v>
+        <v>1.1145</v>
       </c>
     </row>
     <row r="106">
@@ -2973,16 +2973,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.1302</v>
+        <v>1.1212</v>
       </c>
       <c r="D106" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="E106" t="n">
-        <v>1.1388</v>
+        <v>1.1298</v>
       </c>
       <c r="F106" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
     </row>
     <row r="107">
@@ -2997,16 +2997,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.1465</v>
+        <v>1.1374</v>
       </c>
       <c r="D107" t="n">
-        <v>1.1302</v>
+        <v>1.1212</v>
       </c>
       <c r="E107" t="n">
-        <v>1.1465</v>
+        <v>1.1374</v>
       </c>
       <c r="F107" t="n">
-        <v>1.1302</v>
+        <v>1.1212</v>
       </c>
     </row>
     <row r="108">
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.1436</v>
+        <v>1.1346</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1465</v>
+        <v>1.1374</v>
       </c>
       <c r="E108" t="n">
-        <v>1.1485</v>
+        <v>1.1393</v>
       </c>
       <c r="F108" t="n">
-        <v>1.1388</v>
+        <v>1.1298</v>
       </c>
     </row>
     <row r="109">
@@ -3045,16 +3045,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.1427</v>
+        <v>1.1336</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1408</v>
+        <v>1.1317</v>
       </c>
       <c r="E109" t="n">
-        <v>1.1523</v>
+        <v>1.1432</v>
       </c>
       <c r="F109" t="n">
-        <v>1.1379</v>
+        <v>1.1288</v>
       </c>
     </row>
     <row r="110">
@@ -3069,16 +3069,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.1369</v>
+        <v>1.1279</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1427</v>
+        <v>1.1336</v>
       </c>
       <c r="E110" t="n">
-        <v>1.1513</v>
+        <v>1.1422</v>
       </c>
       <c r="F110" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="111">
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.1379</v>
+        <v>1.1288</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1379</v>
+        <v>1.1288</v>
       </c>
       <c r="E111" t="n">
-        <v>1.1427</v>
+        <v>1.1336</v>
       </c>
       <c r="F111" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="112">
@@ -3117,16 +3117,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.1234</v>
+        <v>1.1145</v>
       </c>
       <c r="D112" t="n">
-        <v>1.1379</v>
+        <v>1.1288</v>
       </c>
       <c r="E112" t="n">
-        <v>1.1379</v>
+        <v>1.1288</v>
       </c>
       <c r="F112" t="n">
-        <v>1.1186</v>
+        <v>1.1097</v>
       </c>
     </row>
     <row r="113">
@@ -3141,16 +3141,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1.1282</v>
+        <v>1.1193</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1205</v>
+        <v>1.1116</v>
       </c>
       <c r="E113" t="n">
-        <v>1.1282</v>
+        <v>1.1193</v>
       </c>
       <c r="F113" t="n">
-        <v>1.1167</v>
+        <v>1.1078</v>
       </c>
     </row>
     <row r="114">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1.1119</v>
+        <v>1.1031</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="E114" t="n">
-        <v>1.1282</v>
+        <v>1.1193</v>
       </c>
       <c r="F114" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
     </row>
     <row r="115">
@@ -3189,16 +3189,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.1148</v>
+        <v>1.1059</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1138</v>
+        <v>1.105</v>
       </c>
       <c r="E115" t="n">
-        <v>1.1215</v>
+        <v>1.1126</v>
       </c>
       <c r="F115" t="n">
-        <v>1.1109</v>
+        <v>1.1021</v>
       </c>
     </row>
     <row r="116">
@@ -3213,16 +3213,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1.1244</v>
+        <v>1.1155</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1148</v>
+        <v>1.1059</v>
       </c>
       <c r="E116" t="n">
-        <v>1.1263</v>
+        <v>1.1174</v>
       </c>
       <c r="F116" t="n">
-        <v>1.1148</v>
+        <v>1.1059</v>
       </c>
     </row>
     <row r="117">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1254</v>
+        <v>1.1164</v>
       </c>
       <c r="E117" t="n">
-        <v>1.1254</v>
+        <v>1.1164</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1013</v>
+        <v>1.0925</v>
       </c>
     </row>
     <row r="118">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.1186</v>
+        <v>1.1097</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1071</v>
+        <v>1.0983</v>
       </c>
       <c r="E118" t="n">
-        <v>1.1196</v>
+        <v>1.1107</v>
       </c>
       <c r="F118" t="n">
-        <v>1.1003</v>
+        <v>1.0916</v>
       </c>
     </row>
     <row r="119">
@@ -3285,16 +3285,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1.1071</v>
+        <v>1.0983</v>
       </c>
       <c r="D119" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
       <c r="E119" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
       <c r="F119" t="n">
-        <v>1.1032</v>
+        <v>1.0945</v>
       </c>
     </row>
     <row r="120">
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.1109</v>
+        <v>1.1021</v>
       </c>
       <c r="D120" t="n">
-        <v>1.1051</v>
+        <v>1.0964</v>
       </c>
       <c r="E120" t="n">
-        <v>1.1128</v>
+        <v>1.104</v>
       </c>
       <c r="F120" t="n">
-        <v>1.1032</v>
+        <v>1.0945</v>
       </c>
     </row>
     <row r="121">
@@ -3333,16 +3333,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
       <c r="D121" t="n">
-        <v>1.1099</v>
+        <v>1.1011</v>
       </c>
       <c r="E121" t="n">
-        <v>1.1119</v>
+        <v>1.1031</v>
       </c>
       <c r="F121" t="n">
-        <v>1.0924</v>
+        <v>1.0838</v>
       </c>
     </row>
     <row r="122">
@@ -3357,16 +3357,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="E122" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="F122" t="n">
-        <v>1.0856</v>
+        <v>1.077</v>
       </c>
     </row>
     <row r="123">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.1012</v>
+        <v>1.0924</v>
       </c>
       <c r="D123" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
       <c r="E123" t="n">
-        <v>1.1041</v>
+        <v>1.0953</v>
       </c>
       <c r="F123" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
     </row>
     <row r="124">
@@ -3405,16 +3405,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="E124" t="n">
-        <v>1.1022</v>
+        <v>1.0934</v>
       </c>
       <c r="F124" t="n">
-        <v>1.0953</v>
+        <v>1.0866</v>
       </c>
     </row>
     <row r="125">
@@ -3429,16 +3429,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.1002</v>
+        <v>1.0915</v>
       </c>
       <c r="D125" t="n">
-        <v>1.0924</v>
+        <v>1.0838</v>
       </c>
       <c r="E125" t="n">
-        <v>1.1031</v>
+        <v>1.0944</v>
       </c>
       <c r="F125" t="n">
-        <v>1.0924</v>
+        <v>1.0838</v>
       </c>
     </row>
     <row r="126">
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.0876</v>
+        <v>1.0789</v>
       </c>
       <c r="D126" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="E126" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="F126" t="n">
-        <v>1.0808</v>
+        <v>1.0722</v>
       </c>
     </row>
     <row r="127">
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1.0905</v>
+        <v>1.0818</v>
       </c>
       <c r="D127" t="n">
-        <v>1.0876</v>
+        <v>1.0789</v>
       </c>
       <c r="E127" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
       <c r="F127" t="n">
-        <v>1.0856</v>
+        <v>1.077</v>
       </c>
     </row>
     <row r="128">
@@ -3501,16 +3501,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1.0953</v>
+        <v>1.0866</v>
       </c>
       <c r="D128" t="n">
-        <v>1.0895</v>
+        <v>1.0809</v>
       </c>
       <c r="E128" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
       <c r="F128" t="n">
-        <v>1.0827</v>
+        <v>1.0741</v>
       </c>
     </row>
     <row r="129">
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
       <c r="D129" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
       <c r="E129" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="F129" t="n">
-        <v>1.0895</v>
+        <v>1.0809</v>
       </c>
     </row>
     <row r="130">
@@ -3549,16 +3549,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.107</v>
+        <v>1.0982</v>
       </c>
       <c r="D130" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
       <c r="E130" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
       <c r="F130" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
     </row>
     <row r="131">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.1265</v>
+        <v>1.1175</v>
       </c>
       <c r="D131" t="n">
-        <v>1.107</v>
+        <v>1.0982</v>
       </c>
       <c r="E131" t="n">
-        <v>1.1284</v>
+        <v>1.1195</v>
       </c>
       <c r="F131" t="n">
-        <v>1.107</v>
+        <v>1.0982</v>
       </c>
     </row>
     <row r="132">
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1.1304</v>
+        <v>1.1214</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1284</v>
+        <v>1.1195</v>
       </c>
       <c r="E132" t="n">
-        <v>1.1304</v>
+        <v>1.1214</v>
       </c>
       <c r="F132" t="n">
-        <v>1.1197</v>
+        <v>1.1108</v>
       </c>
     </row>
     <row r="133">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.1216</v>
+        <v>1.1127</v>
       </c>
       <c r="D133" t="n">
-        <v>1.1304</v>
+        <v>1.1214</v>
       </c>
       <c r="E133" t="n">
-        <v>1.1304</v>
+        <v>1.1214</v>
       </c>
       <c r="F133" t="n">
-        <v>1.1167</v>
+        <v>1.1079</v>
       </c>
     </row>
     <row r="134">
@@ -3645,16 +3645,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1216</v>
+        <v>1.1127</v>
       </c>
       <c r="E134" t="n">
-        <v>1.1245</v>
+        <v>1.1156</v>
       </c>
       <c r="F134" t="n">
-        <v>1.1138</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="135">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="D135" t="n">
-        <v>1.1167</v>
+        <v>1.1079</v>
       </c>
       <c r="E135" t="n">
-        <v>1.1187</v>
+        <v>1.1098</v>
       </c>
       <c r="F135" t="n">
-        <v>1.1012</v>
+        <v>1.0924</v>
       </c>
     </row>
     <row r="136">
@@ -3693,16 +3693,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="D136" t="n">
-        <v>1.1051</v>
+        <v>1.0963</v>
       </c>
       <c r="E136" t="n">
-        <v>1.1119</v>
+        <v>1.1031</v>
       </c>
       <c r="F136" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
     </row>
     <row r="137">
@@ -3717,16 +3717,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.1148</v>
+        <v>1.106</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="E137" t="n">
-        <v>1.1158</v>
+        <v>1.1069</v>
       </c>
       <c r="F137" t="n">
-        <v>1.0953</v>
+        <v>1.0866</v>
       </c>
     </row>
     <row r="138">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.0973</v>
+        <v>1.0886</v>
       </c>
       <c r="D138" t="n">
-        <v>1.1129</v>
+        <v>1.104</v>
       </c>
       <c r="E138" t="n">
-        <v>1.1148</v>
+        <v>1.106</v>
       </c>
       <c r="F138" t="n">
-        <v>1.0953</v>
+        <v>1.0866</v>
       </c>
     </row>
     <row r="139">
@@ -3765,16 +3765,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.0973</v>
+        <v>1.0886</v>
       </c>
       <c r="D139" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="E139" t="n">
-        <v>1.1022</v>
+        <v>1.0934</v>
       </c>
       <c r="F139" t="n">
-        <v>1.0934</v>
+        <v>1.0847</v>
       </c>
     </row>
     <row r="140">
@@ -3789,16 +3789,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="D140" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="E140" t="n">
-        <v>1.1041</v>
+        <v>1.0953</v>
       </c>
       <c r="F140" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
     </row>
     <row r="141">
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="D141" t="n">
-        <v>1.0973</v>
+        <v>1.0886</v>
       </c>
       <c r="E141" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="F141" t="n">
-        <v>1.0924</v>
+        <v>1.0838</v>
       </c>
     </row>
     <row r="142">
@@ -3837,16 +3837,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.1031</v>
+        <v>1.0944</v>
       </c>
       <c r="D142" t="n">
-        <v>1.108</v>
+        <v>1.0992</v>
       </c>
       <c r="E142" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
       <c r="F142" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
     </row>
     <row r="143">
@@ -3861,16 +3861,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="D143" t="n">
-        <v>1.1031</v>
+        <v>1.0944</v>
       </c>
       <c r="E143" t="n">
-        <v>1.1031</v>
+        <v>1.0944</v>
       </c>
       <c r="F143" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
     </row>
     <row r="144">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.1012</v>
+        <v>1.0924</v>
       </c>
       <c r="D144" t="n">
-        <v>1.0983</v>
+        <v>1.0895</v>
       </c>
       <c r="E144" t="n">
-        <v>1.1022</v>
+        <v>1.0934</v>
       </c>
       <c r="F144" t="n">
-        <v>1.0885</v>
+        <v>1.0799</v>
       </c>
     </row>
     <row r="145">
@@ -3909,16 +3909,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
       <c r="D145" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="E145" t="n">
-        <v>1.0992</v>
+        <v>1.0905</v>
       </c>
       <c r="F145" t="n">
-        <v>1.0885</v>
+        <v>1.0799</v>
       </c>
     </row>
     <row r="146">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.0846</v>
+        <v>1.076</v>
       </c>
       <c r="D146" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
       <c r="E146" t="n">
-        <v>1.0944</v>
+        <v>1.0857</v>
       </c>
       <c r="F146" t="n">
-        <v>1.073</v>
+        <v>1.0645</v>
       </c>
     </row>
     <row r="147">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.0788</v>
+        <v>1.0702</v>
       </c>
       <c r="D147" t="n">
-        <v>1.0837</v>
+        <v>1.0751</v>
       </c>
       <c r="E147" t="n">
-        <v>1.0866</v>
+        <v>1.078</v>
       </c>
       <c r="F147" t="n">
-        <v>1.0778</v>
+        <v>1.0693</v>
       </c>
     </row>
     <row r="148">
@@ -3981,16 +3981,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.0778</v>
+        <v>1.0693</v>
       </c>
       <c r="D148" t="n">
-        <v>1.0798</v>
+        <v>1.0712</v>
       </c>
       <c r="E148" t="n">
-        <v>1.0837</v>
+        <v>1.0751</v>
       </c>
       <c r="F148" t="n">
-        <v>1.073</v>
+        <v>1.0645</v>
       </c>
     </row>
     <row r="149">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.073</v>
+        <v>1.0645</v>
       </c>
       <c r="D149" t="n">
-        <v>1.0778</v>
+        <v>1.0693</v>
       </c>
       <c r="E149" t="n">
-        <v>1.0778</v>
+        <v>1.0693</v>
       </c>
       <c r="F149" t="n">
-        <v>1.0632</v>
+        <v>1.0548</v>
       </c>
     </row>
     <row r="150">
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.0642</v>
+        <v>1.0558</v>
       </c>
       <c r="D150" t="n">
-        <v>1.072</v>
+        <v>1.0635</v>
       </c>
       <c r="E150" t="n">
-        <v>1.072</v>
+        <v>1.0635</v>
       </c>
       <c r="F150" t="n">
-        <v>1.0584</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="151">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.0691</v>
+        <v>1.0606</v>
       </c>
       <c r="D151" t="n">
-        <v>1.0662</v>
+        <v>1.0577</v>
       </c>
       <c r="E151" t="n">
-        <v>1.0701</v>
+        <v>1.0616</v>
       </c>
       <c r="F151" t="n">
-        <v>1.0593</v>
+        <v>1.0509</v>
       </c>
     </row>
     <row r="152">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.0623</v>
+        <v>1.0538</v>
       </c>
       <c r="D152" t="n">
-        <v>1.0671</v>
+        <v>1.0587</v>
       </c>
       <c r="E152" t="n">
-        <v>1.0671</v>
+        <v>1.0587</v>
       </c>
       <c r="F152" t="n">
-        <v>1.0574</v>
+        <v>1.049</v>
       </c>
     </row>
     <row r="153">
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.0749</v>
+        <v>1.0664</v>
       </c>
       <c r="D153" t="n">
-        <v>1.0632</v>
+        <v>1.0548</v>
       </c>
       <c r="E153" t="n">
-        <v>1.0759</v>
+        <v>1.0673</v>
       </c>
       <c r="F153" t="n">
-        <v>1.0603</v>
+        <v>1.0519</v>
       </c>
     </row>
     <row r="154">
@@ -4125,16 +4125,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.0749</v>
+        <v>1.0664</v>
       </c>
       <c r="D154" t="n">
-        <v>1.073</v>
+        <v>1.0645</v>
       </c>
       <c r="E154" t="n">
-        <v>1.0798</v>
+        <v>1.0712</v>
       </c>
       <c r="F154" t="n">
-        <v>1.0701</v>
+        <v>1.0616</v>
       </c>
     </row>
     <row r="155">
@@ -4149,16 +4149,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.071</v>
+        <v>1.0625</v>
       </c>
       <c r="D155" t="n">
-        <v>1.0749</v>
+        <v>1.0664</v>
       </c>
       <c r="E155" t="n">
-        <v>1.0759</v>
+        <v>1.0673</v>
       </c>
       <c r="F155" t="n">
-        <v>1.0662</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="156">
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.0603</v>
+        <v>1.0519</v>
       </c>
       <c r="D156" t="n">
-        <v>1.072</v>
+        <v>1.0635</v>
       </c>
       <c r="E156" t="n">
-        <v>1.072</v>
+        <v>1.0635</v>
       </c>
       <c r="F156" t="n">
-        <v>1.0555</v>
+        <v>1.0471</v>
       </c>
     </row>
     <row r="157">
@@ -4197,16 +4197,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.0555</v>
+        <v>1.0471</v>
       </c>
       <c r="D157" t="n">
-        <v>1.0603</v>
+        <v>1.0519</v>
       </c>
       <c r="E157" t="n">
-        <v>1.0652</v>
+        <v>1.0567</v>
       </c>
       <c r="F157" t="n">
-        <v>1.0486</v>
+        <v>1.0403</v>
       </c>
     </row>
     <row r="158">
@@ -4221,16 +4221,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.0603</v>
+        <v>1.0519</v>
       </c>
       <c r="D158" t="n">
-        <v>1.0535</v>
+        <v>1.0452</v>
       </c>
       <c r="E158" t="n">
-        <v>1.0642</v>
+        <v>1.0558</v>
       </c>
       <c r="F158" t="n">
-        <v>1.0506</v>
+        <v>1.0423</v>
       </c>
     </row>
     <row r="159">
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.0642</v>
+        <v>1.0558</v>
       </c>
       <c r="D159" t="n">
-        <v>1.0603</v>
+        <v>1.0519</v>
       </c>
       <c r="E159" t="n">
-        <v>1.0652</v>
+        <v>1.0567</v>
       </c>
       <c r="F159" t="n">
-        <v>1.0545</v>
+        <v>1.0461</v>
       </c>
     </row>
     <row r="160">
@@ -4269,16 +4269,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.0623</v>
+        <v>1.0538</v>
       </c>
       <c r="D160" t="n">
-        <v>1.0632</v>
+        <v>1.0548</v>
       </c>
       <c r="E160" t="n">
-        <v>1.0671</v>
+        <v>1.0587</v>
       </c>
       <c r="F160" t="n">
-        <v>1.0603</v>
+        <v>1.0519</v>
       </c>
     </row>
     <row r="161">
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.0652</v>
+        <v>1.0567</v>
       </c>
       <c r="D161" t="n">
-        <v>1.0613</v>
+        <v>1.0529</v>
       </c>
       <c r="E161" t="n">
-        <v>1.0681</v>
+        <v>1.0596</v>
       </c>
       <c r="F161" t="n">
-        <v>1.0584</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="162">
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.0681</v>
+        <v>1.0596</v>
       </c>
       <c r="D162" t="n">
-        <v>1.0642</v>
+        <v>1.0558</v>
       </c>
       <c r="E162" t="n">
-        <v>1.071</v>
+        <v>1.0625</v>
       </c>
       <c r="F162" t="n">
-        <v>1.0623</v>
+        <v>1.0538</v>
       </c>
     </row>
     <row r="163">
@@ -4341,16 +4341,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.0681</v>
+        <v>1.0596</v>
       </c>
       <c r="D163" t="n">
-        <v>1.0652</v>
+        <v>1.0567</v>
       </c>
       <c r="E163" t="n">
-        <v>1.071</v>
+        <v>1.0625</v>
       </c>
       <c r="F163" t="n">
-        <v>1.0652</v>
+        <v>1.0567</v>
       </c>
     </row>
     <row r="164">
@@ -4365,16 +4365,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.0788</v>
+        <v>1.0702</v>
       </c>
       <c r="D164" t="n">
-        <v>1.071</v>
+        <v>1.0625</v>
       </c>
       <c r="E164" t="n">
-        <v>1.0788</v>
+        <v>1.0702</v>
       </c>
       <c r="F164" t="n">
-        <v>1.0662</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="165">
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.0827</v>
+        <v>1.0741</v>
       </c>
       <c r="D165" t="n">
-        <v>1.0769</v>
+        <v>1.0683</v>
       </c>
       <c r="E165" t="n">
-        <v>1.0827</v>
+        <v>1.0741</v>
       </c>
       <c r="F165" t="n">
-        <v>1.0769</v>
+        <v>1.0683</v>
       </c>
     </row>
     <row r="166">
@@ -4413,16 +4413,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.0973</v>
+        <v>1.0886</v>
       </c>
       <c r="D166" t="n">
-        <v>1.0817</v>
+        <v>1.0731</v>
       </c>
       <c r="E166" t="n">
-        <v>1.0973</v>
+        <v>1.0886</v>
       </c>
       <c r="F166" t="n">
-        <v>1.0817</v>
+        <v>1.0731</v>
       </c>
     </row>
     <row r="167">
@@ -4437,16 +4437,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.0866</v>
+        <v>1.078</v>
       </c>
       <c r="D167" t="n">
-        <v>1.0963</v>
+        <v>1.0876</v>
       </c>
       <c r="E167" t="n">
-        <v>1.0973</v>
+        <v>1.0886</v>
       </c>
       <c r="F167" t="n">
-        <v>1.0817</v>
+        <v>1.0731</v>
       </c>
     </row>
     <row r="168">
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.0759</v>
+        <v>1.0673</v>
       </c>
       <c r="D168" t="n">
-        <v>1.0846</v>
+        <v>1.076</v>
       </c>
       <c r="E168" t="n">
-        <v>1.0846</v>
+        <v>1.076</v>
       </c>
       <c r="F168" t="n">
-        <v>1.072</v>
+        <v>1.0635</v>
       </c>
     </row>
     <row r="169">
@@ -4485,16 +4485,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1.0798</v>
+        <v>1.0712</v>
       </c>
       <c r="D169" t="n">
-        <v>1.0769</v>
+        <v>1.0683</v>
       </c>
       <c r="E169" t="n">
-        <v>1.0846</v>
+        <v>1.076</v>
       </c>
       <c r="F169" t="n">
-        <v>1.0769</v>
+        <v>1.0683</v>
       </c>
     </row>
     <row r="170">
@@ -4509,16 +4509,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.0808</v>
+        <v>1.0722</v>
       </c>
       <c r="D170" t="n">
-        <v>1.0798</v>
+        <v>1.0712</v>
       </c>
       <c r="E170" t="n">
-        <v>1.0827</v>
+        <v>1.0741</v>
       </c>
       <c r="F170" t="n">
-        <v>1.073</v>
+        <v>1.0645</v>
       </c>
     </row>
     <row r="171">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.0778</v>
+        <v>1.0693</v>
       </c>
       <c r="D171" t="n">
-        <v>1.0808</v>
+        <v>1.0722</v>
       </c>
       <c r="E171" t="n">
-        <v>1.0808</v>
+        <v>1.0722</v>
       </c>
       <c r="F171" t="n">
-        <v>1.0701</v>
+        <v>1.0616</v>
       </c>
     </row>
     <row r="172">
@@ -4557,16 +4557,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.0846</v>
+        <v>1.076</v>
       </c>
       <c r="D172" t="n">
-        <v>1.0759</v>
+        <v>1.0673</v>
       </c>
       <c r="E172" t="n">
-        <v>1.0866</v>
+        <v>1.078</v>
       </c>
       <c r="F172" t="n">
-        <v>1.0759</v>
+        <v>1.0673</v>
       </c>
     </row>
     <row r="173">
@@ -4581,16 +4581,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.0788</v>
+        <v>1.0702</v>
       </c>
       <c r="D173" t="n">
-        <v>1.0846</v>
+        <v>1.076</v>
       </c>
       <c r="E173" t="n">
-        <v>1.0866</v>
+        <v>1.078</v>
       </c>
       <c r="F173" t="n">
-        <v>1.0759</v>
+        <v>1.0673</v>
       </c>
     </row>
     <row r="174">
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.0564</v>
+        <v>1.048</v>
       </c>
       <c r="D174" t="n">
-        <v>1.0788</v>
+        <v>1.0702</v>
       </c>
       <c r="E174" t="n">
-        <v>1.0788</v>
+        <v>1.0702</v>
       </c>
       <c r="F174" t="n">
-        <v>1.0555</v>
+        <v>1.0471</v>
       </c>
     </row>
     <row r="175">
@@ -4629,16 +4629,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.0516</v>
+        <v>1.0432</v>
       </c>
       <c r="D175" t="n">
-        <v>1.0584</v>
+        <v>1.05</v>
       </c>
       <c r="E175" t="n">
-        <v>1.0642</v>
+        <v>1.0558</v>
       </c>
       <c r="F175" t="n">
-        <v>1.0477</v>
+        <v>1.0394</v>
       </c>
     </row>
     <row r="176">
@@ -4653,16 +4653,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.0555</v>
+        <v>1.0471</v>
       </c>
       <c r="D176" t="n">
-        <v>1.0535</v>
+        <v>1.0452</v>
       </c>
       <c r="E176" t="n">
-        <v>1.0613</v>
+        <v>1.0529</v>
       </c>
       <c r="F176" t="n">
-        <v>1.0438</v>
+        <v>1.0355</v>
       </c>
     </row>
     <row r="177">
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.0457</v>
+        <v>1.0374</v>
       </c>
       <c r="D177" t="n">
-        <v>1.0545</v>
+        <v>1.0461</v>
       </c>
       <c r="E177" t="n">
-        <v>1.0574</v>
+        <v>1.049</v>
       </c>
       <c r="F177" t="n">
-        <v>1.0389</v>
+        <v>1.0307</v>
       </c>
     </row>
     <row r="178">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.0389</v>
+        <v>1.0307</v>
       </c>
       <c r="D178" t="n">
-        <v>1.0438</v>
+        <v>1.0355</v>
       </c>
       <c r="E178" t="n">
-        <v>1.0438</v>
+        <v>1.0355</v>
       </c>
       <c r="F178" t="n">
-        <v>1.0341</v>
+        <v>1.0259</v>
       </c>
     </row>
     <row r="179">
@@ -4725,16 +4725,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.036</v>
+        <v>1.0278</v>
       </c>
       <c r="D179" t="n">
-        <v>1.0409</v>
+        <v>1.0326</v>
       </c>
       <c r="E179" t="n">
-        <v>1.0428</v>
+        <v>1.0345</v>
       </c>
       <c r="F179" t="n">
-        <v>1.0331</v>
+        <v>1.0249</v>
       </c>
     </row>
     <row r="180">
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.0311</v>
+        <v>1.023</v>
       </c>
       <c r="D180" t="n">
-        <v>1.036</v>
+        <v>1.0278</v>
       </c>
       <c r="E180" t="n">
-        <v>1.0438</v>
+        <v>1.0355</v>
       </c>
       <c r="F180" t="n">
-        <v>1.0292</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="181">
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.0136</v>
+        <v>1.0056</v>
       </c>
       <c r="D181" t="n">
-        <v>1.0302</v>
+        <v>1.022</v>
       </c>
       <c r="E181" t="n">
-        <v>1.0302</v>
+        <v>1.022</v>
       </c>
       <c r="F181" t="n">
-        <v>1.0117</v>
+        <v>1.0037</v>
       </c>
     </row>
     <row r="182">
@@ -4797,16 +4797,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.0127</v>
+        <v>1.0046</v>
       </c>
       <c r="D182" t="n">
-        <v>1.0156</v>
+        <v>1.0075</v>
       </c>
       <c r="E182" t="n">
-        <v>1.0175</v>
+        <v>1.0094</v>
       </c>
       <c r="F182" t="n">
-        <v>1.0049</v>
+        <v>0.9969</v>
       </c>
     </row>
     <row r="183">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.9922</v>
+        <v>0.9844000000000001</v>
       </c>
       <c r="D183" t="n">
-        <v>1.0136</v>
+        <v>1.0056</v>
       </c>
       <c r="E183" t="n">
-        <v>1.0136</v>
+        <v>1.0056</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9883</v>
+        <v>0.9805</v>
       </c>
     </row>
     <row r="184">
@@ -4845,16 +4845,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.9932</v>
+        <v>0.9853</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9971</v>
+        <v>0.9892</v>
       </c>
       <c r="E184" t="n">
-        <v>1.0001</v>
+        <v>0.9922</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9873</v>
+        <v>0.9794</v>
       </c>
     </row>
     <row r="185">
@@ -4869,16 +4869,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.9932</v>
+        <v>0.9853</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9952</v>
+        <v>0.9873</v>
       </c>
       <c r="E185" t="n">
-        <v>1.0021</v>
+        <v>0.9941</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9922</v>
+        <v>0.9843</v>
       </c>
     </row>
     <row r="186">
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.005</v>
+        <v>0.9971</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9952</v>
+        <v>0.9873</v>
       </c>
       <c r="E186" t="n">
-        <v>1.007</v>
+        <v>0.999</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9922</v>
+        <v>0.9843</v>
       </c>
     </row>
     <row r="187">
@@ -4917,16 +4917,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.008</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>1.007</v>
+        <v>0.999</v>
       </c>
       <c r="E187" t="n">
-        <v>1.009</v>
+        <v>1.001</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9961</v>
+        <v>0.9882</v>
       </c>
     </row>
     <row r="188">
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.007</v>
+        <v>0.999</v>
       </c>
       <c r="D188" t="n">
-        <v>1.007</v>
+        <v>0.999</v>
       </c>
       <c r="E188" t="n">
-        <v>1.009</v>
+        <v>1.001</v>
       </c>
       <c r="F188" t="n">
-        <v>1.0011</v>
+        <v>0.9931</v>
       </c>
     </row>
     <row r="189">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.0189</v>
+        <v>1.0108</v>
       </c>
       <c r="D189" t="n">
-        <v>1.005</v>
+        <v>0.9971</v>
       </c>
       <c r="E189" t="n">
-        <v>1.0209</v>
+        <v>1.0127</v>
       </c>
       <c r="F189" t="n">
-        <v>1.0041</v>
+        <v>0.9961</v>
       </c>
     </row>
     <row r="190">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.0643</v>
+        <v>1.0559</v>
       </c>
       <c r="D190" t="n">
-        <v>1.0199</v>
+        <v>1.0118</v>
       </c>
       <c r="E190" t="n">
-        <v>1.0643</v>
+        <v>1.0559</v>
       </c>
       <c r="F190" t="n">
-        <v>1.0199</v>
+        <v>1.0118</v>
       </c>
     </row>
     <row r="191">
@@ -5013,16 +5013,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.0801</v>
+        <v>1.0716</v>
       </c>
       <c r="D191" t="n">
-        <v>1.0752</v>
+        <v>1.0667</v>
       </c>
       <c r="E191" t="n">
-        <v>1.1009</v>
+        <v>1.0922</v>
       </c>
       <c r="F191" t="n">
-        <v>1.0752</v>
+        <v>1.0667</v>
       </c>
     </row>
     <row r="192">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.1098</v>
+        <v>1.101</v>
       </c>
       <c r="D192" t="n">
-        <v>1.0821</v>
+        <v>1.0735</v>
       </c>
       <c r="E192" t="n">
-        <v>1.1108</v>
+        <v>1.102</v>
       </c>
       <c r="F192" t="n">
-        <v>1.0772</v>
+        <v>1.0686</v>
       </c>
     </row>
     <row r="193">
@@ -5061,16 +5061,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1.1088</v>
+        <v>1.1</v>
       </c>
       <c r="D193" t="n">
-        <v>1.1187</v>
+        <v>1.1098</v>
       </c>
       <c r="E193" t="n">
-        <v>1.1315</v>
+        <v>1.1226</v>
       </c>
       <c r="F193" t="n">
-        <v>1.094</v>
+        <v>1.0853</v>
       </c>
     </row>
     <row r="194">
@@ -5085,16 +5085,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1.173</v>
+        <v>1.1637</v>
       </c>
       <c r="D194" t="n">
-        <v>1.1305</v>
+        <v>1.1216</v>
       </c>
       <c r="E194" t="n">
-        <v>1.1898</v>
+        <v>1.1804</v>
       </c>
       <c r="F194" t="n">
-        <v>1.1098</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="195">
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1.1908</v>
+        <v>1.1814</v>
       </c>
       <c r="D195" t="n">
-        <v>1.2798</v>
+        <v>1.2696</v>
       </c>
       <c r="E195" t="n">
-        <v>1.2897</v>
+        <v>1.2794</v>
       </c>
       <c r="F195" t="n">
-        <v>1.1592</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="196">
@@ -5133,16 +5133,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.1039</v>
+        <v>1.0951</v>
       </c>
       <c r="D196" t="n">
-        <v>1.1572</v>
+        <v>1.148</v>
       </c>
       <c r="E196" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
       <c r="F196" t="n">
-        <v>1.0989</v>
+        <v>1.0902</v>
       </c>
     </row>
     <row r="197">
@@ -5157,16 +5157,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1.1493</v>
+        <v>1.1402</v>
       </c>
       <c r="D197" t="n">
-        <v>1.0881</v>
+        <v>1.0794</v>
       </c>
       <c r="E197" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
       <c r="F197" t="n">
-        <v>1.0881</v>
+        <v>1.0794</v>
       </c>
     </row>
     <row r="198">
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1.1325</v>
+        <v>1.1235</v>
       </c>
       <c r="D198" t="n">
-        <v>1.1493</v>
+        <v>1.1402</v>
       </c>
       <c r="E198" t="n">
-        <v>1.1612</v>
+        <v>1.152</v>
       </c>
       <c r="F198" t="n">
-        <v>1.1226</v>
+        <v>1.1137</v>
       </c>
     </row>
     <row r="199">
@@ -5205,16 +5205,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1.1681</v>
+        <v>1.1588</v>
       </c>
       <c r="D199" t="n">
-        <v>1.1335</v>
+        <v>1.1245</v>
       </c>
       <c r="E199" t="n">
-        <v>1.174</v>
+        <v>1.1647</v>
       </c>
       <c r="F199" t="n">
-        <v>1.1335</v>
+        <v>1.1245</v>
       </c>
     </row>
     <row r="200">
@@ -5229,16 +5229,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.1454</v>
+        <v>1.1363</v>
       </c>
       <c r="D200" t="n">
-        <v>1.1691</v>
+        <v>1.1598</v>
       </c>
       <c r="E200" t="n">
-        <v>1.1701</v>
+        <v>1.1608</v>
       </c>
       <c r="F200" t="n">
-        <v>1.1434</v>
+        <v>1.1343</v>
       </c>
     </row>
     <row r="201">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.1632</v>
+        <v>1.1539</v>
       </c>
       <c r="D201" t="n">
-        <v>1.1454</v>
+        <v>1.1363</v>
       </c>
       <c r="E201" t="n">
-        <v>1.1691</v>
+        <v>1.1598</v>
       </c>
       <c r="F201" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
     </row>
     <row r="202">
@@ -5277,16 +5277,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1.1473</v>
+        <v>1.1382</v>
       </c>
       <c r="D202" t="n">
-        <v>1.1641</v>
+        <v>1.1549</v>
       </c>
       <c r="E202" t="n">
-        <v>1.173</v>
+        <v>1.1637</v>
       </c>
       <c r="F202" t="n">
-        <v>1.1473</v>
+        <v>1.1382</v>
       </c>
     </row>
     <row r="203">
@@ -5301,16 +5301,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1.1543</v>
+        <v>1.1451</v>
       </c>
       <c r="D203" t="n">
-        <v>1.1493</v>
+        <v>1.1402</v>
       </c>
       <c r="E203" t="n">
-        <v>1.1651</v>
+        <v>1.1559</v>
       </c>
       <c r="F203" t="n">
-        <v>1.1315</v>
+        <v>1.1226</v>
       </c>
     </row>
     <row r="204">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.1444</v>
+        <v>1.1353</v>
       </c>
       <c r="D204" t="n">
-        <v>1.1553</v>
+        <v>1.1461</v>
       </c>
       <c r="E204" t="n">
-        <v>1.1651</v>
+        <v>1.1559</v>
       </c>
       <c r="F204" t="n">
-        <v>1.1375</v>
+        <v>1.1284</v>
       </c>
     </row>
     <row r="205">
@@ -5349,16 +5349,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.1503</v>
+        <v>1.1412</v>
       </c>
       <c r="D205" t="n">
-        <v>1.1444</v>
+        <v>1.1353</v>
       </c>
       <c r="E205" t="n">
-        <v>1.1523</v>
+        <v>1.1431</v>
       </c>
       <c r="F205" t="n">
-        <v>1.1424</v>
+        <v>1.1333</v>
       </c>
     </row>
     <row r="206">
@@ -5373,16 +5373,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.1483</v>
+        <v>1.1392</v>
       </c>
       <c r="D206" t="n">
-        <v>1.1503</v>
+        <v>1.1412</v>
       </c>
       <c r="E206" t="n">
-        <v>1.1523</v>
+        <v>1.1431</v>
       </c>
       <c r="F206" t="n">
-        <v>1.1434</v>
+        <v>1.1343</v>
       </c>
     </row>
     <row r="207">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.1424</v>
+        <v>1.1333</v>
       </c>
       <c r="D207" t="n">
-        <v>1.1473</v>
+        <v>1.1382</v>
       </c>
       <c r="E207" t="n">
-        <v>1.1473</v>
+        <v>1.1382</v>
       </c>
       <c r="F207" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
     </row>
     <row r="208">
@@ -5421,16 +5421,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1.1365</v>
+        <v>1.1275</v>
       </c>
       <c r="D208" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="E208" t="n">
-        <v>1.1424</v>
+        <v>1.1333</v>
       </c>
       <c r="F208" t="n">
-        <v>1.1345</v>
+        <v>1.1255</v>
       </c>
     </row>
     <row r="209">
@@ -5445,16 +5445,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="D209" t="n">
-        <v>1.1345</v>
+        <v>1.1255</v>
       </c>
       <c r="E209" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="F209" t="n">
-        <v>1.1296</v>
+        <v>1.1206</v>
       </c>
     </row>
     <row r="210">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.1266</v>
+        <v>1.1177</v>
       </c>
       <c r="D210" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="E210" t="n">
-        <v>1.1434</v>
+        <v>1.1343</v>
       </c>
       <c r="F210" t="n">
-        <v>1.1246</v>
+        <v>1.1157</v>
       </c>
     </row>
     <row r="211">
@@ -5493,16 +5493,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1.1147</v>
+        <v>1.1059</v>
       </c>
       <c r="D211" t="n">
-        <v>1.1246</v>
+        <v>1.1157</v>
       </c>
       <c r="E211" t="n">
-        <v>1.1315</v>
+        <v>1.1226</v>
       </c>
       <c r="F211" t="n">
-        <v>1.1118</v>
+        <v>1.1029</v>
       </c>
     </row>
     <row r="212">
@@ -5517,16 +5517,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
       <c r="D212" t="n">
+        <v>1.1049</v>
+      </c>
+      <c r="E212" t="n">
         <v>1.1137</v>
       </c>
-      <c r="E212" t="n">
-        <v>1.1226</v>
-      </c>
       <c r="F212" t="n">
-        <v>1.1078</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="213">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.1276</v>
+        <v>1.1186</v>
       </c>
       <c r="D213" t="n">
-        <v>1.1167</v>
+        <v>1.1078</v>
       </c>
       <c r="E213" t="n">
-        <v>1.1345</v>
+        <v>1.1255</v>
       </c>
       <c r="F213" t="n">
-        <v>1.1167</v>
+        <v>1.1078</v>
       </c>
     </row>
     <row r="214">
@@ -5565,16 +5565,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="D214" t="n">
-        <v>1.1276</v>
+        <v>1.1186</v>
       </c>
       <c r="E214" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="F214" t="n">
-        <v>1.1217</v>
+        <v>1.1128</v>
       </c>
     </row>
     <row r="215">
@@ -5589,16 +5589,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.1523</v>
+        <v>1.1431</v>
       </c>
       <c r="D215" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="E215" t="n">
-        <v>1.1533</v>
+        <v>1.1441</v>
       </c>
       <c r="F215" t="n">
-        <v>1.1365</v>
+        <v>1.1275</v>
       </c>
     </row>
     <row r="216">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1.1523</v>
+        <v>1.1431</v>
       </c>
       <c r="D216" t="n">
-        <v>1.1513</v>
+        <v>1.1422</v>
       </c>
       <c r="E216" t="n">
-        <v>1.1582</v>
+        <v>1.149</v>
       </c>
       <c r="F216" t="n">
-        <v>1.1464</v>
+        <v>1.1373</v>
       </c>
     </row>
     <row r="217">
@@ -5637,16 +5637,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.1681</v>
+        <v>1.1588</v>
       </c>
       <c r="D217" t="n">
-        <v>1.1513</v>
+        <v>1.1422</v>
       </c>
       <c r="E217" t="n">
-        <v>1.1691</v>
+        <v>1.1598</v>
       </c>
       <c r="F217" t="n">
-        <v>1.1424</v>
+        <v>1.1333</v>
       </c>
     </row>
     <row r="218">
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1.1503</v>
+        <v>1.1412</v>
       </c>
       <c r="D218" t="n">
-        <v>1.173</v>
+        <v>1.1637</v>
       </c>
       <c r="E218" t="n">
-        <v>1.173</v>
+        <v>1.1637</v>
       </c>
       <c r="F218" t="n">
-        <v>1.1464</v>
+        <v>1.1373</v>
       </c>
     </row>
     <row r="219">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1.1454</v>
+        <v>1.1363</v>
       </c>
       <c r="D219" t="n">
-        <v>1.1464</v>
+        <v>1.1373</v>
       </c>
       <c r="E219" t="n">
-        <v>1.1464</v>
+        <v>1.1373</v>
       </c>
       <c r="F219" t="n">
-        <v>1.1335</v>
+        <v>1.1245</v>
       </c>
     </row>
     <row r="220">
@@ -5709,16 +5709,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.1345</v>
+        <v>1.1255</v>
       </c>
       <c r="D220" t="n">
-        <v>1.1454</v>
+        <v>1.1363</v>
       </c>
       <c r="E220" t="n">
-        <v>1.1493</v>
+        <v>1.1402</v>
       </c>
       <c r="F220" t="n">
-        <v>1.1296</v>
+        <v>1.1206</v>
       </c>
     </row>
     <row r="221">
@@ -5733,16 +5733,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="D221" t="n">
-        <v>1.1335</v>
+        <v>1.1245</v>
       </c>
       <c r="E221" t="n">
-        <v>1.1404</v>
+        <v>1.1314</v>
       </c>
       <c r="F221" t="n">
-        <v>1.1286</v>
+        <v>1.1196</v>
       </c>
     </row>
     <row r="222">
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1.1335</v>
+        <v>1.1245</v>
       </c>
       <c r="D222" t="n">
-        <v>1.1394</v>
+        <v>1.1304</v>
       </c>
       <c r="E222" t="n">
-        <v>1.1434</v>
+        <v>1.1343</v>
       </c>
       <c r="F222" t="n">
-        <v>1.1315</v>
+        <v>1.1226</v>
       </c>
     </row>
     <row r="223">
@@ -5781,16 +5781,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1.1305</v>
+        <v>1.1216</v>
       </c>
       <c r="D223" t="n">
-        <v>1.1325</v>
+        <v>1.1235</v>
       </c>
       <c r="E223" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="F223" t="n">
-        <v>1.1286</v>
+        <v>1.1196</v>
       </c>
     </row>
     <row r="224">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1.1503</v>
+        <v>1.1412</v>
       </c>
       <c r="D224" t="n">
-        <v>1.1305</v>
+        <v>1.1216</v>
       </c>
       <c r="E224" t="n">
-        <v>1.1622</v>
+        <v>1.1529</v>
       </c>
       <c r="F224" t="n">
-        <v>1.1305</v>
+        <v>1.1216</v>
       </c>
     </row>
     <row r="225">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1.1493</v>
+        <v>1.1402</v>
       </c>
       <c r="D225" t="n">
-        <v>1.1503</v>
+        <v>1.1412</v>
       </c>
       <c r="E225" t="n">
-        <v>1.1562</v>
+        <v>1.1471</v>
       </c>
       <c r="F225" t="n">
-        <v>1.1365</v>
+        <v>1.1275</v>
       </c>
     </row>
     <row r="226">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1.1533</v>
+        <v>1.1441</v>
       </c>
       <c r="D226" t="n">
-        <v>1.1473</v>
+        <v>1.1382</v>
       </c>
       <c r="E226" t="n">
-        <v>1.1543</v>
+        <v>1.1451</v>
       </c>
       <c r="F226" t="n">
-        <v>1.1434</v>
+        <v>1.1343</v>
       </c>
     </row>
     <row r="227">
@@ -5877,16 +5877,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.1503</v>
+        <v>1.1412</v>
       </c>
       <c r="D227" t="n">
-        <v>1.1543</v>
+        <v>1.1451</v>
       </c>
       <c r="E227" t="n">
-        <v>1.1553</v>
+        <v>1.1461</v>
       </c>
       <c r="F227" t="n">
-        <v>1.1464</v>
+        <v>1.1373</v>
       </c>
     </row>
     <row r="228">
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.1256</v>
+        <v>1.1167</v>
       </c>
       <c r="D228" t="n">
-        <v>1.1513</v>
+        <v>1.1422</v>
       </c>
       <c r="E228" t="n">
-        <v>1.1523</v>
+        <v>1.1431</v>
       </c>
       <c r="F228" t="n">
-        <v>1.1236</v>
+        <v>1.1147</v>
       </c>
     </row>
     <row r="229">
@@ -5925,16 +5925,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.1246</v>
+        <v>1.1157</v>
       </c>
       <c r="D229" t="n">
-        <v>1.1286</v>
+        <v>1.1196</v>
       </c>
       <c r="E229" t="n">
-        <v>1.1315</v>
+        <v>1.1226</v>
       </c>
       <c r="F229" t="n">
-        <v>1.1177</v>
+        <v>1.1088</v>
       </c>
     </row>
     <row r="230">
@@ -5949,16 +5949,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1.1266</v>
+        <v>1.1177</v>
       </c>
       <c r="D230" t="n">
-        <v>1.1256</v>
+        <v>1.1167</v>
       </c>
       <c r="E230" t="n">
-        <v>1.1296</v>
+        <v>1.1206</v>
       </c>
       <c r="F230" t="n">
-        <v>1.1207</v>
+        <v>1.1118</v>
       </c>
     </row>
     <row r="231">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="D231" t="n">
-        <v>1.1256</v>
+        <v>1.1167</v>
       </c>
       <c r="E231" t="n">
-        <v>1.1394</v>
+        <v>1.1304</v>
       </c>
       <c r="F231" t="n">
-        <v>1.1147</v>
+        <v>1.1059</v>
       </c>
     </row>
     <row r="232">
@@ -5997,16 +5997,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.1365</v>
+        <v>1.1275</v>
       </c>
       <c r="D232" t="n">
-        <v>1.1385</v>
+        <v>1.1294</v>
       </c>
       <c r="E232" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="F232" t="n">
-        <v>1.1335</v>
+        <v>1.1245</v>
       </c>
     </row>
     <row r="233">
@@ -6021,16 +6021,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="D233" t="n">
-        <v>1.1375</v>
+        <v>1.1284</v>
       </c>
       <c r="E233" t="n">
-        <v>1.1454</v>
+        <v>1.1363</v>
       </c>
       <c r="F233" t="n">
-        <v>1.1365</v>
+        <v>1.1275</v>
       </c>
     </row>
     <row r="234">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="D234" t="n">
-        <v>1.1404</v>
+        <v>1.1314</v>
       </c>
       <c r="E234" t="n">
-        <v>1.1424</v>
+        <v>1.1333</v>
       </c>
       <c r="F234" t="n">
-        <v>1.1325</v>
+        <v>1.1235</v>
       </c>
     </row>
     <row r="235">
@@ -6069,16 +6069,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1.1572</v>
+        <v>1.148</v>
       </c>
       <c r="D235" t="n">
-        <v>1.1414</v>
+        <v>1.1324</v>
       </c>
       <c r="E235" t="n">
-        <v>1.1582</v>
+        <v>1.149</v>
       </c>
       <c r="F235" t="n">
-        <v>1.1365</v>
+        <v>1.1275</v>
       </c>
     </row>
     <row r="236">
@@ -6093,16 +6093,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.1582</v>
+        <v>1.149</v>
       </c>
       <c r="D236" t="n">
-        <v>1.1553</v>
+        <v>1.1461</v>
       </c>
       <c r="E236" t="n">
-        <v>1.1632</v>
+        <v>1.1539</v>
       </c>
       <c r="F236" t="n">
-        <v>1.1444</v>
+        <v>1.1353</v>
       </c>
     </row>
     <row r="237">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1.1582</v>
+        <v>1.149</v>
       </c>
       <c r="D237" t="n">
-        <v>1.1562</v>
+        <v>1.1471</v>
       </c>
       <c r="E237" t="n">
-        <v>1.1592</v>
+        <v>1.15</v>
       </c>
       <c r="F237" t="n">
-        <v>1.1533</v>
+        <v>1.1441</v>
       </c>
     </row>
     <row r="238">
@@ -6141,16 +6141,16 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1.1721</v>
+        <v>1.1628</v>
       </c>
       <c r="D238" t="n">
-        <v>1.1582</v>
+        <v>1.149</v>
       </c>
       <c r="E238" t="n">
-        <v>1.174</v>
+        <v>1.1647</v>
       </c>
       <c r="F238" t="n">
-        <v>1.1572</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="239">
@@ -6165,16 +6165,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1.175</v>
+        <v>1.1657</v>
       </c>
       <c r="D239" t="n">
-        <v>1.1721</v>
+        <v>1.1628</v>
       </c>
       <c r="E239" t="n">
-        <v>1.1819</v>
+        <v>1.1726</v>
       </c>
       <c r="F239" t="n">
-        <v>1.1661</v>
+        <v>1.1569</v>
       </c>
     </row>
     <row r="240">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
       <c r="D240" t="n">
-        <v>1.1928</v>
+        <v>1.1833</v>
       </c>
       <c r="E240" t="n">
-        <v>1.2096</v>
+        <v>1.2</v>
       </c>
       <c r="F240" t="n">
-        <v>1.175</v>
+        <v>1.1657</v>
       </c>
     </row>
     <row r="241">
@@ -6213,16 +6213,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1.178</v>
+        <v>1.1687</v>
       </c>
       <c r="D241" t="n">
-        <v>1.175</v>
+        <v>1.1657</v>
       </c>
       <c r="E241" t="n">
-        <v>1.182</v>
+        <v>1.1726</v>
       </c>
       <c r="F241" t="n">
-        <v>1.173</v>
+        <v>1.1637</v>
       </c>
     </row>
     <row r="242">
@@ -6237,16 +6237,16 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1.181</v>
+        <v>1.1716</v>
       </c>
       <c r="D242" t="n">
-        <v>1.18</v>
+        <v>1.1706</v>
       </c>
       <c r="E242" t="n">
-        <v>1.181</v>
+        <v>1.1716</v>
       </c>
       <c r="F242" t="n">
-        <v>1.174</v>
+        <v>1.1647</v>
       </c>
     </row>
     <row r="243">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1.168</v>
+        <v>1.1587</v>
       </c>
       <c r="D243" t="n">
-        <v>1.18</v>
+        <v>1.1706</v>
       </c>
       <c r="E243" t="n">
-        <v>1.18</v>
+        <v>1.1706</v>
       </c>
       <c r="F243" t="n">
-        <v>1.167</v>
+        <v>1.1577</v>
       </c>
     </row>
     <row r="244">
@@ -6285,16 +6285,16 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1.172</v>
+        <v>1.1627</v>
       </c>
       <c r="D244" t="n">
-        <v>1.161</v>
+        <v>1.1518</v>
       </c>
       <c r="E244" t="n">
-        <v>1.177</v>
+        <v>1.1677</v>
       </c>
       <c r="F244" t="n">
-        <v>1.159</v>
+        <v>1.1498</v>
       </c>
     </row>
     <row r="245">
@@ -6309,16 +6309,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1.166</v>
+        <v>1.1567</v>
       </c>
       <c r="D245" t="n">
-        <v>1.17</v>
+        <v>1.1607</v>
       </c>
       <c r="E245" t="n">
-        <v>1.179</v>
+        <v>1.1696</v>
       </c>
       <c r="F245" t="n">
-        <v>1.164</v>
+        <v>1.1548</v>
       </c>
     </row>
     <row r="246">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1.174</v>
+        <v>1.1647</v>
       </c>
       <c r="D246" t="n">
-        <v>1.167</v>
+        <v>1.1577</v>
       </c>
       <c r="E246" t="n">
-        <v>1.181</v>
+        <v>1.1716</v>
       </c>
       <c r="F246" t="n">
-        <v>1.167</v>
+        <v>1.1577</v>
       </c>
     </row>
     <row r="247">
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1.162</v>
+        <v>1.1528</v>
       </c>
       <c r="D247" t="n">
-        <v>1.171</v>
+        <v>1.1617</v>
       </c>
       <c r="E247" t="n">
-        <v>1.172</v>
+        <v>1.1627</v>
       </c>
       <c r="F247" t="n">
-        <v>1.158</v>
+        <v>1.1488</v>
       </c>
     </row>
     <row r="248">
@@ -6381,16 +6381,16 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.154</v>
+        <v>1.1448</v>
       </c>
       <c r="D248" t="n">
-        <v>1.162</v>
+        <v>1.1528</v>
       </c>
       <c r="E248" t="n">
-        <v>1.163</v>
+        <v>1.1538</v>
       </c>
       <c r="F248" t="n">
-        <v>1.153</v>
+        <v>1.1438</v>
       </c>
     </row>
     <row r="249">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1.159</v>
+        <v>1.1498</v>
       </c>
       <c r="D249" t="n">
-        <v>1.154</v>
+        <v>1.1448</v>
       </c>
       <c r="E249" t="n">
-        <v>1.167</v>
+        <v>1.1577</v>
       </c>
       <c r="F249" t="n">
-        <v>1.154</v>
+        <v>1.1448</v>
       </c>
     </row>
     <row r="250">
@@ -6429,16 +6429,16 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1.168</v>
+        <v>1.1587</v>
       </c>
       <c r="D250" t="n">
-        <v>1.159</v>
+        <v>1.1498</v>
       </c>
       <c r="E250" t="n">
-        <v>1.169</v>
+        <v>1.1597</v>
       </c>
       <c r="F250" t="n">
-        <v>1.156</v>
+        <v>1.1468</v>
       </c>
     </row>
     <row r="251">
@@ -6453,16 +6453,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1.174</v>
+        <v>1.1647</v>
       </c>
       <c r="D251" t="n">
-        <v>1.168</v>
+        <v>1.1587</v>
       </c>
       <c r="E251" t="n">
-        <v>1.177</v>
+        <v>1.1677</v>
       </c>
       <c r="F251" t="n">
-        <v>1.167</v>
+        <v>1.1577</v>
       </c>
     </row>
     <row r="252">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.172</v>
+        <v>1.1627</v>
       </c>
       <c r="D252" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
       <c r="E252" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
       <c r="F252" t="n">
-        <v>1.167</v>
+        <v>1.1577</v>
       </c>
     </row>
     <row r="253">
@@ -6501,16 +6501,16 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1.174</v>
+        <v>1.1647</v>
       </c>
       <c r="D253" t="n">
-        <v>1.172</v>
+        <v>1.1627</v>
       </c>
       <c r="E253" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
       <c r="F253" t="n">
-        <v>1.159</v>
+        <v>1.1498</v>
       </c>
     </row>
     <row r="254">
@@ -6525,16 +6525,16 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.184</v>
+        <v>1.1746</v>
       </c>
       <c r="D254" t="n">
-        <v>1.173</v>
+        <v>1.1637</v>
       </c>
       <c r="E254" t="n">
-        <v>1.184</v>
+        <v>1.1746</v>
       </c>
       <c r="F254" t="n">
-        <v>1.172</v>
+        <v>1.1627</v>
       </c>
     </row>
     <row r="255">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1.177</v>
+        <v>1.1677</v>
       </c>
       <c r="D255" t="n">
-        <v>1.185</v>
+        <v>1.1756</v>
       </c>
       <c r="E255" t="n">
-        <v>1.189</v>
+        <v>1.1796</v>
       </c>
       <c r="F255" t="n">
-        <v>1.176</v>
+        <v>1.1667</v>
       </c>
     </row>
     <row r="256">
@@ -6573,16 +6573,16 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.151</v>
+        <v>1.1419</v>
       </c>
       <c r="D256" t="n">
-        <v>1.179</v>
+        <v>1.1696</v>
       </c>
       <c r="E256" t="n">
-        <v>1.181</v>
+        <v>1.1716</v>
       </c>
       <c r="F256" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
     </row>
     <row r="257">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
       <c r="D257" t="n">
-        <v>1.152</v>
+        <v>1.1429</v>
       </c>
       <c r="E257" t="n">
-        <v>1.156</v>
+        <v>1.1468</v>
       </c>
       <c r="F257" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="258">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="D258" t="n">
-        <v>1.137</v>
+        <v>1.128</v>
       </c>
       <c r="E258" t="n">
-        <v>1.14</v>
+        <v>1.131</v>
       </c>
       <c r="F258" t="n">
-        <v>1.125</v>
+        <v>1.1161</v>
       </c>
     </row>
     <row r="259">
@@ -6645,16 +6645,16 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1.142</v>
+        <v>1.1329</v>
       </c>
       <c r="D259" t="n">
-        <v>1.139</v>
+        <v>1.13</v>
       </c>
       <c r="E259" t="n">
-        <v>1.142</v>
+        <v>1.1329</v>
       </c>
       <c r="F259" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="260">
@@ -6669,16 +6669,16 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1.146</v>
+        <v>1.1369</v>
       </c>
       <c r="D260" t="n">
-        <v>1.14</v>
+        <v>1.131</v>
       </c>
       <c r="E260" t="n">
-        <v>1.149</v>
+        <v>1.1399</v>
       </c>
       <c r="F260" t="n">
-        <v>1.133</v>
+        <v>1.124</v>
       </c>
     </row>
     <row r="261">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
       <c r="D261" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="E261" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="F261" t="n">
-        <v>1.132</v>
+        <v>1.123</v>
       </c>
     </row>
     <row r="262">
@@ -6717,16 +6717,16 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1.122</v>
+        <v>1.1131</v>
       </c>
       <c r="D262" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
       <c r="E262" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
       <c r="F262" t="n">
-        <v>1.119</v>
+        <v>1.1101</v>
       </c>
     </row>
     <row r="263">
@@ -6741,16 +6741,16 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
       <c r="D263" t="n">
-        <v>1.118</v>
+        <v>1.1091</v>
       </c>
       <c r="E263" t="n">
-        <v>1.119</v>
+        <v>1.1101</v>
       </c>
       <c r="F263" t="n">
-        <v>1.102</v>
+        <v>1.0933</v>
       </c>
     </row>
     <row r="264">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1.125</v>
+        <v>1.1161</v>
       </c>
       <c r="D264" t="n">
-        <v>1.11</v>
+        <v>1.1012</v>
       </c>
       <c r="E264" t="n">
-        <v>1.126</v>
+        <v>1.1171</v>
       </c>
       <c r="F264" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
     </row>
     <row r="265">
@@ -6789,16 +6789,16 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1.127</v>
+        <v>1.1181</v>
       </c>
       <c r="D265" t="n">
-        <v>1.126</v>
+        <v>1.1171</v>
       </c>
       <c r="E265" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="F265" t="n">
-        <v>1.123</v>
+        <v>1.1141</v>
       </c>
     </row>
     <row r="266">
@@ -6813,16 +6813,16 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1.137</v>
+        <v>1.128</v>
       </c>
       <c r="D266" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
       <c r="E266" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="F266" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="267">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1.137</v>
+        <v>1.128</v>
       </c>
       <c r="D267" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
       <c r="E267" t="n">
-        <v>1.141</v>
+        <v>1.1319</v>
       </c>
       <c r="F267" t="n">
-        <v>1.131</v>
+        <v>1.122</v>
       </c>
     </row>
     <row r="268">
@@ -6861,16 +6861,16 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="D268" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="E268" t="n">
-        <v>1.143</v>
+        <v>1.1339</v>
       </c>
       <c r="F268" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
     </row>
     <row r="269">
@@ -6885,16 +6885,16 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
       <c r="D269" t="n">
-        <v>1.143</v>
+        <v>1.1339</v>
       </c>
       <c r="E269" t="n">
-        <v>1.143</v>
+        <v>1.1339</v>
       </c>
       <c r="F269" t="n">
-        <v>1.125</v>
+        <v>1.1161</v>
       </c>
     </row>
     <row r="270">
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1.113</v>
+        <v>1.1042</v>
       </c>
       <c r="D270" t="n">
-        <v>1.126</v>
+        <v>1.1171</v>
       </c>
       <c r="E270" t="n">
-        <v>1.126</v>
+        <v>1.1171</v>
       </c>
       <c r="F270" t="n">
-        <v>1.109</v>
+        <v>1.1002</v>
       </c>
     </row>
     <row r="271">
@@ -6933,16 +6933,16 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
       <c r="D271" t="n">
-        <v>1.121</v>
+        <v>1.1121</v>
       </c>
       <c r="E271" t="n">
-        <v>1.132</v>
+        <v>1.123</v>
       </c>
       <c r="F271" t="n">
-        <v>1.12</v>
+        <v>1.1111</v>
       </c>
     </row>
     <row r="272">
@@ -6957,16 +6957,16 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
       <c r="D272" t="n">
-        <v>1.128</v>
+        <v>1.119</v>
       </c>
       <c r="E272" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="F272" t="n">
-        <v>1.121</v>
+        <v>1.1121</v>
       </c>
     </row>
     <row r="273">
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1.15</v>
+        <v>1.1409</v>
       </c>
       <c r="D273" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
       <c r="E273" t="n">
-        <v>1.152</v>
+        <v>1.1429</v>
       </c>
       <c r="F273" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="274">
@@ -7005,16 +7005,16 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
       <c r="D274" t="n">
-        <v>1.159</v>
+        <v>1.1498</v>
       </c>
       <c r="E274" t="n">
-        <v>1.159</v>
+        <v>1.1498</v>
       </c>
       <c r="F274" t="n">
-        <v>1.127</v>
+        <v>1.1181</v>
       </c>
     </row>
     <row r="275">
@@ -7029,16 +7029,16 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
       <c r="D275" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
       <c r="E275" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
       <c r="F275" t="n">
-        <v>1.122</v>
+        <v>1.1131</v>
       </c>
     </row>
     <row r="276">
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
       <c r="D276" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
       <c r="E276" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
       <c r="F276" t="n">
-        <v>1.124</v>
+        <v>1.1151</v>
       </c>
     </row>
     <row r="277">
@@ -7077,16 +7077,16 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1.132</v>
+        <v>1.123</v>
       </c>
       <c r="D277" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
       <c r="E277" t="n">
-        <v>1.133</v>
+        <v>1.124</v>
       </c>
       <c r="F277" t="n">
-        <v>1.127</v>
+        <v>1.1181</v>
       </c>
     </row>
     <row r="278">
@@ -7101,16 +7101,16 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1.14</v>
+        <v>1.131</v>
       </c>
       <c r="D278" t="n">
-        <v>1.129</v>
+        <v>1.12</v>
       </c>
       <c r="E278" t="n">
-        <v>1.14</v>
+        <v>1.131</v>
       </c>
       <c r="F278" t="n">
-        <v>1.128</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="279">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="D279" t="n">
-        <v>1.139</v>
+        <v>1.13</v>
       </c>
       <c r="E279" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="F279" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
     </row>
     <row r="280">
@@ -7149,16 +7149,16 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1.146</v>
+        <v>1.1369</v>
       </c>
       <c r="D280" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="E280" t="n">
-        <v>1.149</v>
+        <v>1.1399</v>
       </c>
       <c r="F280" t="n">
-        <v>1.141</v>
+        <v>1.1319</v>
       </c>
     </row>
     <row r="281">
@@ -7173,16 +7173,16 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1.147</v>
+        <v>1.1379</v>
       </c>
       <c r="D281" t="n">
-        <v>1.146</v>
+        <v>1.1369</v>
       </c>
       <c r="E281" t="n">
-        <v>1.147</v>
+        <v>1.1379</v>
       </c>
       <c r="F281" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="282">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="D282" t="n">
-        <v>1.148</v>
+        <v>1.1389</v>
       </c>
       <c r="E282" t="n">
-        <v>1.148</v>
+        <v>1.1389</v>
       </c>
       <c r="F282" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="283">
@@ -7221,16 +7221,16 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1.145</v>
+        <v>1.1359</v>
       </c>
       <c r="D283" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="E283" t="n">
-        <v>1.154</v>
+        <v>1.1448</v>
       </c>
       <c r="F283" t="n">
-        <v>1.142</v>
+        <v>1.1329</v>
       </c>
     </row>
     <row r="284">
@@ -7245,16 +7245,16 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1.145</v>
+        <v>1.1359</v>
       </c>
       <c r="D284" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="E284" t="n">
-        <v>1.146</v>
+        <v>1.1369</v>
       </c>
       <c r="F284" t="n">
-        <v>1.142</v>
+        <v>1.1329</v>
       </c>
     </row>
     <row r="285">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1.143</v>
+        <v>1.1339</v>
       </c>
       <c r="D285" t="n">
-        <v>1.145</v>
+        <v>1.1359</v>
       </c>
       <c r="E285" t="n">
-        <v>1.145</v>
+        <v>1.1359</v>
       </c>
       <c r="F285" t="n">
-        <v>1.14</v>
+        <v>1.131</v>
       </c>
     </row>
     <row r="286">
@@ -7293,16 +7293,16 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
       <c r="D286" t="n">
-        <v>1.142</v>
+        <v>1.1329</v>
       </c>
       <c r="E286" t="n">
-        <v>1.144</v>
+        <v>1.1349</v>
       </c>
       <c r="F286" t="n">
-        <v>1.131</v>
+        <v>1.122</v>
       </c>
     </row>
     <row r="287">
@@ -7317,16 +7317,16 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1.134</v>
+        <v>1.125</v>
       </c>
       <c r="D287" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
       <c r="E287" t="n">
-        <v>1.137</v>
+        <v>1.128</v>
       </c>
       <c r="F287" t="n">
-        <v>1.13</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="288">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="C288" t="n">
+        <v>1.1141</v>
+      </c>
+      <c r="D288" t="n">
         <v>1.123</v>
       </c>
-      <c r="D288" t="n">
-        <v>1.132</v>
-      </c>
       <c r="E288" t="n">
-        <v>1.132</v>
+        <v>1.123</v>
       </c>
       <c r="F288" t="n">
-        <v>1.12</v>
+        <v>1.1111</v>
       </c>
     </row>
     <row r="289">
@@ -7365,16 +7365,16 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1.131</v>
+        <v>1.122</v>
       </c>
       <c r="D289" t="n">
-        <v>1.125</v>
+        <v>1.1161</v>
       </c>
       <c r="E289" t="n">
-        <v>1.133</v>
+        <v>1.124</v>
       </c>
       <c r="F289" t="n">
-        <v>1.125</v>
+        <v>1.1161</v>
       </c>
     </row>
     <row r="290">
@@ -7389,16 +7389,16 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1.139</v>
+        <v>1.13</v>
       </c>
       <c r="D290" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="E290" t="n">
         <v>1.131</v>
       </c>
-      <c r="E290" t="n">
-        <v>1.14</v>
-      </c>
       <c r="F290" t="n">
-        <v>1.127</v>
+        <v>1.1181</v>
       </c>
     </row>
     <row r="291">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
       <c r="D291" t="n">
-        <v>1.138</v>
+        <v>1.129</v>
       </c>
       <c r="E291" t="n">
-        <v>1.142</v>
+        <v>1.1329</v>
       </c>
       <c r="F291" t="n">
-        <v>1.135</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="292">
@@ -7437,16 +7437,880 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1.136</v>
+        <v>1.127</v>
       </c>
       <c r="D292" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1.1349</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.1349</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1.1319</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.1369</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1.1369</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.1319</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.1329</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="E300" t="n">
         <v>1.137</v>
       </c>
-      <c r="E292" t="n">
+      <c r="F300" t="n">
+        <v>1.128</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.134</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1.142</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1.144</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.142</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.146</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.155</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1.156</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1.153</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1.154</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1.154</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1.161</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1.112</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="E319" t="n">
         <v>1.139</v>
       </c>
-      <c r="F292" t="n">
+      <c r="F319" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
         <v>1.132</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1.154</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1.159</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1.166</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1.159</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8313,6 +8313,54 @@
         <v>1.159</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.162</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8361,6 +8361,126 @@
         <v>1.168</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1.169</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1.173</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="F333" t="n">
+        <v>1.153</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1.155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563020.xlsx
+++ b/data/download_SH563020.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>最低Low</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅PRT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +493,9 @@
       <c r="F2" t="n">
         <v>0.9474</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="F3" t="n">
         <v>0.9455</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +547,9 @@
       <c r="F4" t="n">
         <v>0.9426</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +574,9 @@
       <c r="F5" t="n">
         <v>0.9417</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +601,9 @@
       <c r="F6" t="n">
         <v>0.9436</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="F7" t="n">
         <v>0.9331</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +655,9 @@
       <c r="F8" t="n">
         <v>0.9388</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +682,9 @@
       <c r="F9" t="n">
         <v>0.9331</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +709,9 @@
       <c r="F10" t="n">
         <v>0.9397</v>
       </c>
+      <c r="G10" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +736,9 @@
       <c r="F11" t="n">
         <v>0.9369</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +763,9 @@
       <c r="F12" t="n">
         <v>0.9397</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +790,9 @@
       <c r="F13" t="n">
         <v>0.9417</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -776,6 +817,9 @@
       <c r="F14" t="n">
         <v>0.9464</v>
       </c>
+      <c r="G14" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -800,6 +844,9 @@
       <c r="F15" t="n">
         <v>0.955</v>
       </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,6 +871,9 @@
       <c r="F16" t="n">
         <v>0.9665</v>
       </c>
+      <c r="G16" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -848,6 +898,9 @@
       <c r="F17" t="n">
         <v>0.9741</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -872,6 +925,9 @@
       <c r="F18" t="n">
         <v>0.9703000000000001</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.88</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -896,6 +952,9 @@
       <c r="F19" t="n">
         <v>0.9646</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -920,6 +979,9 @@
       <c r="F20" t="n">
         <v>0.9703000000000001</v>
       </c>
+      <c r="G20" t="n">
+        <v>-0.78</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -944,6 +1006,9 @@
       <c r="F21" t="n">
         <v>0.9646</v>
       </c>
+      <c r="G21" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -968,6 +1033,9 @@
       <c r="F22" t="n">
         <v>0.9627</v>
       </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -992,6 +1060,9 @@
       <c r="F23" t="n">
         <v>0.9684</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1016,6 +1087,9 @@
       <c r="F24" t="n">
         <v>0.9722</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1040,6 +1114,9 @@
       <c r="F25" t="n">
         <v>0.9694</v>
       </c>
+      <c r="G25" t="n">
+        <v>-1.16</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1064,6 +1141,9 @@
       <c r="F26" t="n">
         <v>0.9369</v>
       </c>
+      <c r="G26" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1088,6 +1168,9 @@
       <c r="F27" t="n">
         <v>0.9483</v>
       </c>
+      <c r="G27" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1112,6 +1195,9 @@
       <c r="F28" t="n">
         <v>0.9264</v>
       </c>
+      <c r="G28" t="n">
+        <v>-2.29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1136,6 +1222,9 @@
       <c r="F29" t="n">
         <v>0.9206</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1160,6 +1249,9 @@
       <c r="F30" t="n">
         <v>0.9397</v>
       </c>
+      <c r="G30" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1184,6 +1276,9 @@
       <c r="F31" t="n">
         <v>0.9608</v>
       </c>
+      <c r="G31" t="n">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1208,6 +1303,9 @@
       <c r="F32" t="n">
         <v>0.9827</v>
       </c>
+      <c r="G32" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1232,6 +1330,9 @@
       <c r="F33" t="n">
         <v>0.9999</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1256,6 +1357,9 @@
       <c r="F34" t="n">
         <v>0.9913</v>
       </c>
+      <c r="G34" t="n">
+        <v>-1.32</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1280,6 +1384,9 @@
       <c r="F35" t="n">
         <v>0.9837</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1304,6 +1411,9 @@
       <c r="F36" t="n">
         <v>0.976</v>
       </c>
+      <c r="G36" t="n">
+        <v>-1.34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1328,6 +1438,9 @@
       <c r="F37" t="n">
         <v>0.9627</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1352,6 +1465,9 @@
       <c r="F38" t="n">
         <v>0.9617</v>
       </c>
+      <c r="G38" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1376,6 +1492,9 @@
       <c r="F39" t="n">
         <v>0.9722</v>
       </c>
+      <c r="G39" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1400,6 +1519,9 @@
       <c r="F40" t="n">
         <v>0.9893999999999999</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1424,6 +1546,9 @@
       <c r="F41" t="n">
         <v>0.998</v>
       </c>
+      <c r="G41" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1448,6 +1573,9 @@
       <c r="F42" t="n">
         <v>1.0028</v>
       </c>
+      <c r="G42" t="n">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1472,6 +1600,9 @@
       <c r="F43" t="n">
         <v>1.0238</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1496,6 +1627,9 @@
       <c r="F44" t="n">
         <v>1.0343</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1520,6 +1654,9 @@
       <c r="F45" t="n">
         <v>1.0419</v>
       </c>
+      <c r="G45" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1544,6 +1681,9 @@
       <c r="F46" t="n">
         <v>1.0534</v>
       </c>
+      <c r="G46" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1568,6 +1708,9 @@
       <c r="F47" t="n">
         <v>1.0305</v>
       </c>
+      <c r="G47" t="n">
+        <v>-2.26</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1592,6 +1735,9 @@
       <c r="F48" t="n">
         <v>1.0286</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1616,6 +1762,9 @@
       <c r="F49" t="n">
         <v>1.0295</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1640,6 +1789,9 @@
       <c r="F50" t="n">
         <v>1.0295</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1664,6 +1816,9 @@
       <c r="F51" t="n">
         <v>1.0352</v>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1688,6 +1843,9 @@
       <c r="F52" t="n">
         <v>1.0343</v>
       </c>
+      <c r="G52" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1712,6 +1870,9 @@
       <c r="F53" t="n">
         <v>1.0429</v>
       </c>
+      <c r="G53" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1736,6 +1897,9 @@
       <c r="F54" t="n">
         <v>1.0515</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1760,6 +1924,9 @@
       <c r="F55" t="n">
         <v>1.0543</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1784,6 +1951,9 @@
       <c r="F56" t="n">
         <v>1.041</v>
       </c>
+      <c r="G56" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1808,6 +1978,9 @@
       <c r="F57" t="n">
         <v>1.0467</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1832,6 +2005,9 @@
       <c r="F58" t="n">
         <v>1.0305</v>
       </c>
+      <c r="G58" t="n">
+        <v>-2.26</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1856,6 +2032,9 @@
       <c r="F59" t="n">
         <v>1.019</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1880,6 +2059,9 @@
       <c r="F60" t="n">
         <v>1.0247</v>
       </c>
+      <c r="G60" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1904,6 +2086,9 @@
       <c r="F61" t="n">
         <v>1.0257</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1928,6 +2113,9 @@
       <c r="F62" t="n">
         <v>1.0286</v>
       </c>
+      <c r="G62" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1952,6 +2140,9 @@
       <c r="F63" t="n">
         <v>1.0286</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1976,6 +2167,9 @@
       <c r="F64" t="n">
         <v>1.0247</v>
       </c>
+      <c r="G64" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2000,6 +2194,9 @@
       <c r="F65" t="n">
         <v>1.0324</v>
       </c>
+      <c r="G65" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2024,6 +2221,9 @@
       <c r="F66" t="n">
         <v>1.0305</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2048,6 +2248,9 @@
       <c r="F67" t="n">
         <v>1.0343</v>
       </c>
+      <c r="G67" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2072,6 +2275,9 @@
       <c r="F68" t="n">
         <v>1.0333</v>
       </c>
+      <c r="G68" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2096,6 +2302,9 @@
       <c r="F69" t="n">
         <v>1.0381</v>
       </c>
+      <c r="G69" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2120,6 +2329,9 @@
       <c r="F70" t="n">
         <v>1.0305</v>
       </c>
+      <c r="G70" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2144,6 +2356,9 @@
       <c r="F71" t="n">
         <v>1.0343</v>
       </c>
+      <c r="G71" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2168,6 +2383,9 @@
       <c r="F72" t="n">
         <v>1.0458</v>
       </c>
+      <c r="G72" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2192,6 +2410,9 @@
       <c r="F73" t="n">
         <v>1.0515</v>
       </c>
+      <c r="G73" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2216,6 +2437,9 @@
       <c r="F74" t="n">
         <v>1.0553</v>
       </c>
+      <c r="G74" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2240,6 +2464,9 @@
       <c r="F75" t="n">
         <v>1.0601</v>
       </c>
+      <c r="G75" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2264,6 +2491,9 @@
       <c r="F76" t="n">
         <v>1.062</v>
       </c>
+      <c r="G76" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2288,6 +2518,9 @@
       <c r="F77" t="n">
         <v>1.0639</v>
       </c>
+      <c r="G77" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2312,6 +2545,9 @@
       <c r="F78" t="n">
         <v>1.0629</v>
       </c>
+      <c r="G78" t="n">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2336,6 +2572,9 @@
       <c r="F79" t="n">
         <v>1.0725</v>
       </c>
+      <c r="G79" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2360,6 +2599,9 @@
       <c r="F80" t="n">
         <v>1.0754</v>
       </c>
+      <c r="G80" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2384,6 +2626,9 @@
       <c r="F81" t="n">
         <v>1.0916</v>
       </c>
+      <c r="G81" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2408,6 +2653,9 @@
       <c r="F82" t="n">
         <v>1.0954</v>
       </c>
+      <c r="G82" t="n">
+        <v>1.82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2432,6 +2680,9 @@
       <c r="F83" t="n">
         <v>1.1183</v>
       </c>
+      <c r="G83" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2456,6 +2707,9 @@
       <c r="F84" t="n">
         <v>1.1174</v>
       </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2480,6 +2734,9 @@
       <c r="F85" t="n">
         <v>1.1021</v>
       </c>
+      <c r="G85" t="n">
+        <v>-1.95</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2504,6 +2761,9 @@
       <c r="F86" t="n">
         <v>1.084</v>
       </c>
+      <c r="G86" t="n">
+        <v>-1.64</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2528,6 +2788,9 @@
       <c r="F87" t="n">
         <v>1.0754</v>
       </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2552,6 +2815,9 @@
       <c r="F88" t="n">
         <v>1.0801</v>
       </c>
+      <c r="G88" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2576,6 +2842,9 @@
       <c r="F89" t="n">
         <v>1.0754</v>
       </c>
+      <c r="G89" t="n">
+        <v>-1.14</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2600,6 +2869,9 @@
       <c r="F90" t="n">
         <v>1.0629</v>
       </c>
+      <c r="G90" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2624,6 +2896,9 @@
       <c r="F91" t="n">
         <v>1.0696</v>
       </c>
+      <c r="G91" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2648,6 +2923,9 @@
       <c r="F92" t="n">
         <v>1.0763</v>
       </c>
+      <c r="G92" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2672,6 +2950,9 @@
       <c r="F93" t="n">
         <v>1.082</v>
       </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2696,6 +2977,9 @@
       <c r="F94" t="n">
         <v>1.0868</v>
       </c>
+      <c r="G94" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2720,6 +3004,9 @@
       <c r="F95" t="n">
         <v>1.0916</v>
       </c>
+      <c r="G95" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2744,6 +3031,9 @@
       <c r="F96" t="n">
         <v>1.0983</v>
       </c>
+      <c r="G96" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2768,6 +3058,9 @@
       <c r="F97" t="n">
         <v>1.0973</v>
       </c>
+      <c r="G97" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2792,6 +3085,9 @@
       <c r="F98" t="n">
         <v>1.105</v>
       </c>
+      <c r="G98" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2816,6 +3112,9 @@
       <c r="F99" t="n">
         <v>1.105</v>
       </c>
+      <c r="G99" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2840,6 +3139,9 @@
       <c r="F100" t="n">
         <v>1.1059</v>
       </c>
+      <c r="G100" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2864,6 +3166,9 @@
       <c r="F101" t="n">
         <v>1.1078</v>
       </c>
+      <c r="G101" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2888,6 +3193,9 @@
       <c r="F102" t="n">
         <v>1.1145</v>
       </c>
+      <c r="G102" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2912,6 +3220,9 @@
       <c r="F103" t="n">
         <v>1.126</v>
       </c>
+      <c r="G103" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2936,6 +3247,9 @@
       <c r="F104" t="n">
         <v>1.1298</v>
       </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2960,6 +3274,9 @@
       <c r="F105" t="n">
         <v>1.1145</v>
       </c>
+      <c r="G105" t="n">
+        <v>-1.35</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2984,6 +3301,9 @@
       <c r="F106" t="n">
         <v>1.1174</v>
       </c>
+      <c r="G106" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3008,6 +3328,9 @@
       <c r="F107" t="n">
         <v>1.1212</v>
       </c>
+      <c r="G107" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3032,6 +3355,9 @@
       <c r="F108" t="n">
         <v>1.1298</v>
       </c>
+      <c r="G108" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3056,6 +3382,9 @@
       <c r="F109" t="n">
         <v>1.1288</v>
       </c>
+      <c r="G109" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3080,6 +3409,9 @@
       <c r="F110" t="n">
         <v>1.125</v>
       </c>
+      <c r="G110" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3104,6 +3436,9 @@
       <c r="F111" t="n">
         <v>1.125</v>
       </c>
+      <c r="G111" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3128,6 +3463,9 @@
       <c r="F112" t="n">
         <v>1.1097</v>
       </c>
+      <c r="G112" t="n">
+        <v>-1.27</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3152,6 +3490,9 @@
       <c r="F113" t="n">
         <v>1.1078</v>
       </c>
+      <c r="G113" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3176,6 +3517,9 @@
       <c r="F114" t="n">
         <v>1.1002</v>
       </c>
+      <c r="G114" t="n">
+        <v>-1.45</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3200,6 +3544,9 @@
       <c r="F115" t="n">
         <v>1.1021</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3224,6 +3571,9 @@
       <c r="F116" t="n">
         <v>1.1059</v>
       </c>
+      <c r="G116" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3248,6 +3598,9 @@
       <c r="F117" t="n">
         <v>1.0925</v>
       </c>
+      <c r="G117" t="n">
+        <v>-1.37</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3272,6 +3625,9 @@
       <c r="F118" t="n">
         <v>1.0916</v>
       </c>
+      <c r="G118" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3296,6 +3652,9 @@
       <c r="F119" t="n">
         <v>1.0945</v>
       </c>
+      <c r="G119" t="n">
+        <v>-1.03</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3320,6 +3679,9 @@
       <c r="F120" t="n">
         <v>1.0945</v>
       </c>
+      <c r="G120" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3344,6 +3706,9 @@
       <c r="F121" t="n">
         <v>1.0838</v>
       </c>
+      <c r="G121" t="n">
+        <v>-1.32</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3368,6 +3733,9 @@
       <c r="F122" t="n">
         <v>1.077</v>
       </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3392,6 +3760,9 @@
       <c r="F123" t="n">
         <v>1.0857</v>
       </c>
+      <c r="G123" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3416,6 +3787,9 @@
       <c r="F124" t="n">
         <v>1.0866</v>
       </c>
+      <c r="G124" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3440,6 +3814,9 @@
       <c r="F125" t="n">
         <v>1.0838</v>
       </c>
+      <c r="G125" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3464,6 +3841,9 @@
       <c r="F126" t="n">
         <v>1.0722</v>
       </c>
+      <c r="G126" t="n">
+        <v>-1.15</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3488,6 +3868,9 @@
       <c r="F127" t="n">
         <v>1.077</v>
       </c>
+      <c r="G127" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3512,6 +3895,9 @@
       <c r="F128" t="n">
         <v>1.0741</v>
       </c>
+      <c r="G128" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3536,6 +3922,9 @@
       <c r="F129" t="n">
         <v>1.0809</v>
       </c>
+      <c r="G129" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3560,6 +3949,9 @@
       <c r="F130" t="n">
         <v>1.0857</v>
       </c>
+      <c r="G130" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3584,6 +3976,9 @@
       <c r="F131" t="n">
         <v>1.0982</v>
       </c>
+      <c r="G131" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3608,6 +4003,9 @@
       <c r="F132" t="n">
         <v>1.1108</v>
       </c>
+      <c r="G132" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3632,6 +4030,9 @@
       <c r="F133" t="n">
         <v>1.1079</v>
       </c>
+      <c r="G133" t="n">
+        <v>-0.78</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3656,6 +4057,9 @@
       <c r="F134" t="n">
         <v>1.105</v>
       </c>
+      <c r="G134" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3680,6 +4084,9 @@
       <c r="F135" t="n">
         <v>1.0924</v>
       </c>
+      <c r="G135" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3704,6 +4111,9 @@
       <c r="F136" t="n">
         <v>1.0905</v>
       </c>
+      <c r="G136" t="n">
+        <v>-0.79</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3728,6 +4138,9 @@
       <c r="F137" t="n">
         <v>1.0866</v>
       </c>
+      <c r="G137" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3752,6 +4165,9 @@
       <c r="F138" t="n">
         <v>1.0866</v>
       </c>
+      <c r="G138" t="n">
+        <v>-1.57</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3776,6 +4192,9 @@
       <c r="F139" t="n">
         <v>1.0847</v>
       </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3800,6 +4219,9 @@
       <c r="F140" t="n">
         <v>1.0876</v>
       </c>
+      <c r="G140" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3824,6 +4246,9 @@
       <c r="F141" t="n">
         <v>1.0838</v>
       </c>
+      <c r="G141" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3848,6 +4273,9 @@
       <c r="F142" t="n">
         <v>1.0905</v>
       </c>
+      <c r="G142" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3872,6 +4300,9 @@
       <c r="F143" t="n">
         <v>1.0857</v>
       </c>
+      <c r="G143" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3896,6 +4327,9 @@
       <c r="F144" t="n">
         <v>1.0799</v>
       </c>
+      <c r="G144" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3920,6 +4354,9 @@
       <c r="F145" t="n">
         <v>1.0799</v>
       </c>
+      <c r="G145" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3944,6 +4381,9 @@
       <c r="F146" t="n">
         <v>1.0645</v>
       </c>
+      <c r="G146" t="n">
+        <v>-1.07</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3968,6 +4408,9 @@
       <c r="F147" t="n">
         <v>1.0693</v>
       </c>
+      <c r="G147" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3992,6 +4435,9 @@
       <c r="F148" t="n">
         <v>1.0645</v>
       </c>
+      <c r="G148" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4016,6 +4462,9 @@
       <c r="F149" t="n">
         <v>1.0548</v>
       </c>
+      <c r="G149" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4040,6 +4489,9 @@
       <c r="F150" t="n">
         <v>1.05</v>
       </c>
+      <c r="G150" t="n">
+        <v>-0.82</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4064,6 +4516,9 @@
       <c r="F151" t="n">
         <v>1.0509</v>
       </c>
+      <c r="G151" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4088,6 +4543,9 @@
       <c r="F152" t="n">
         <v>1.049</v>
       </c>
+      <c r="G152" t="n">
+        <v>-0.64</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4112,6 +4570,9 @@
       <c r="F153" t="n">
         <v>1.0519</v>
       </c>
+      <c r="G153" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4136,6 +4597,9 @@
       <c r="F154" t="n">
         <v>1.0616</v>
       </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4160,6 +4624,9 @@
       <c r="F155" t="n">
         <v>1.0577</v>
       </c>
+      <c r="G155" t="n">
+        <v>-0.37</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4184,6 +4651,9 @@
       <c r="F156" t="n">
         <v>1.0471</v>
       </c>
+      <c r="G156" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4208,6 +4678,9 @@
       <c r="F157" t="n">
         <v>1.0403</v>
       </c>
+      <c r="G157" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4232,6 +4705,9 @@
       <c r="F158" t="n">
         <v>1.0423</v>
       </c>
+      <c r="G158" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4256,6 +4732,9 @@
       <c r="F159" t="n">
         <v>1.0461</v>
       </c>
+      <c r="G159" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4280,6 +4759,9 @@
       <c r="F160" t="n">
         <v>1.0519</v>
       </c>
+      <c r="G160" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4304,6 +4786,9 @@
       <c r="F161" t="n">
         <v>1.05</v>
       </c>
+      <c r="G161" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4328,6 +4813,9 @@
       <c r="F162" t="n">
         <v>1.0538</v>
       </c>
+      <c r="G162" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4352,6 +4840,9 @@
       <c r="F163" t="n">
         <v>1.0567</v>
       </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4376,6 +4867,9 @@
       <c r="F164" t="n">
         <v>1.0577</v>
       </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4400,6 +4894,9 @@
       <c r="F165" t="n">
         <v>1.0683</v>
       </c>
+      <c r="G165" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4424,6 +4921,9 @@
       <c r="F166" t="n">
         <v>1.0731</v>
       </c>
+      <c r="G166" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4448,6 +4948,9 @@
       <c r="F167" t="n">
         <v>1.0731</v>
       </c>
+      <c r="G167" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4472,6 +4975,9 @@
       <c r="F168" t="n">
         <v>1.0635</v>
       </c>
+      <c r="G168" t="n">
+        <v>-0.99</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4496,6 +5002,9 @@
       <c r="F169" t="n">
         <v>1.0683</v>
       </c>
+      <c r="G169" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4520,6 +5029,9 @@
       <c r="F170" t="n">
         <v>1.0645</v>
       </c>
+      <c r="G170" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4544,6 +5056,9 @@
       <c r="F171" t="n">
         <v>1.0616</v>
       </c>
+      <c r="G171" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4568,6 +5083,9 @@
       <c r="F172" t="n">
         <v>1.0673</v>
       </c>
+      <c r="G172" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4592,6 +5110,9 @@
       <c r="F173" t="n">
         <v>1.0673</v>
       </c>
+      <c r="G173" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4616,6 +5137,9 @@
       <c r="F174" t="n">
         <v>1.0471</v>
       </c>
+      <c r="G174" t="n">
+        <v>-2.07</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4640,6 +5164,9 @@
       <c r="F175" t="n">
         <v>1.0394</v>
       </c>
+      <c r="G175" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4664,6 +5191,9 @@
       <c r="F176" t="n">
         <v>1.0355</v>
       </c>
+      <c r="G176" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4688,6 +5218,9 @@
       <c r="F177" t="n">
         <v>1.0307</v>
       </c>
+      <c r="G177" t="n">
+        <v>-0.93</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4712,6 +5245,9 @@
       <c r="F178" t="n">
         <v>1.0259</v>
       </c>
+      <c r="G178" t="n">
+        <v>-0.65</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4736,6 +5272,9 @@
       <c r="F179" t="n">
         <v>1.0249</v>
       </c>
+      <c r="G179" t="n">
+        <v>-0.28</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4760,6 +5299,9 @@
       <c r="F180" t="n">
         <v>1.021</v>
       </c>
+      <c r="G180" t="n">
+        <v>-0.47</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4784,6 +5326,9 @@
       <c r="F181" t="n">
         <v>1.0037</v>
       </c>
+      <c r="G181" t="n">
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4808,6 +5353,9 @@
       <c r="F182" t="n">
         <v>0.9969</v>
       </c>
+      <c r="G182" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4832,6 +5380,9 @@
       <c r="F183" t="n">
         <v>0.9805</v>
       </c>
+      <c r="G183" t="n">
+        <v>-2.01</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4856,6 +5407,9 @@
       <c r="F184" t="n">
         <v>0.9794</v>
       </c>
+      <c r="G184" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4880,6 +5434,9 @@
       <c r="F185" t="n">
         <v>0.9843</v>
       </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4904,6 +5461,9 @@
       <c r="F186" t="n">
         <v>0.9843</v>
       </c>
+      <c r="G186" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4928,6 +5488,9 @@
       <c r="F187" t="n">
         <v>0.9882</v>
       </c>
+      <c r="G187" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4952,6 +5515,9 @@
       <c r="F188" t="n">
         <v>0.9931</v>
       </c>
+      <c r="G188" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4976,6 +5542,9 @@
       <c r="F189" t="n">
         <v>0.9961</v>
       </c>
+      <c r="G189" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5000,6 +5569,9 @@
       <c r="F190" t="n">
         <v>1.0118</v>
       </c>
+      <c r="G190" t="n">
+        <v>4.46</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5024,6 +5596,9 @@
       <c r="F191" t="n">
         <v>1.0667</v>
       </c>
+      <c r="G191" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5048,6 +5623,9 @@
       <c r="F192" t="n">
         <v>1.0686</v>
       </c>
+      <c r="G192" t="n">
+        <v>2.74</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5072,6 +5650,9 @@
       <c r="F193" t="n">
         <v>1.0853</v>
       </c>
+      <c r="G193" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5096,6 +5677,9 @@
       <c r="F194" t="n">
         <v>1.101</v>
       </c>
+      <c r="G194" t="n">
+        <v>5.79</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5120,6 +5704,9 @@
       <c r="F195" t="n">
         <v>1.15</v>
       </c>
+      <c r="G195" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5144,6 +5731,9 @@
       <c r="F196" t="n">
         <v>1.0902</v>
       </c>
+      <c r="G196" t="n">
+        <v>-7.3</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5168,6 +5758,9 @@
       <c r="F197" t="n">
         <v>1.0794</v>
       </c>
+      <c r="G197" t="n">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5192,6 +5785,9 @@
       <c r="F198" t="n">
         <v>1.1137</v>
       </c>
+      <c r="G198" t="n">
+        <v>-1.46</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5216,6 +5812,9 @@
       <c r="F199" t="n">
         <v>1.1245</v>
       </c>
+      <c r="G199" t="n">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5240,6 +5839,9 @@
       <c r="F200" t="n">
         <v>1.1343</v>
       </c>
+      <c r="G200" t="n">
+        <v>-1.94</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5264,6 +5866,9 @@
       <c r="F201" t="n">
         <v>1.1294</v>
       </c>
+      <c r="G201" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5288,6 +5893,9 @@
       <c r="F202" t="n">
         <v>1.1382</v>
       </c>
+      <c r="G202" t="n">
+        <v>-1.36</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5312,6 +5920,9 @@
       <c r="F203" t="n">
         <v>1.1226</v>
       </c>
+      <c r="G203" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5336,6 +5947,9 @@
       <c r="F204" t="n">
         <v>1.1284</v>
       </c>
+      <c r="G204" t="n">
+        <v>-0.86</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5360,6 +5974,9 @@
       <c r="F205" t="n">
         <v>1.1333</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5384,6 +6001,9 @@
       <c r="F206" t="n">
         <v>1.1343</v>
       </c>
+      <c r="G206" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5408,6 +6028,9 @@
       <c r="F207" t="n">
         <v>1.1294</v>
       </c>
+      <c r="G207" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5432,6 +6055,9 @@
       <c r="F208" t="n">
         <v>1.1255</v>
       </c>
+      <c r="G208" t="n">
+        <v>-0.51</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5456,6 +6082,9 @@
       <c r="F209" t="n">
         <v>1.1206</v>
       </c>
+      <c r="G209" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5480,6 +6109,9 @@
       <c r="F210" t="n">
         <v>1.1157</v>
       </c>
+      <c r="G210" t="n">
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5504,6 +6136,9 @@
       <c r="F211" t="n">
         <v>1.1029</v>
       </c>
+      <c r="G211" t="n">
+        <v>-1.06</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5528,6 +6163,9 @@
       <c r="F212" t="n">
         <v>1.099</v>
       </c>
+      <c r="G212" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5552,6 +6190,9 @@
       <c r="F213" t="n">
         <v>1.1078</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5576,6 +6217,9 @@
       <c r="F214" t="n">
         <v>1.1128</v>
       </c>
+      <c r="G214" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5600,6 +6244,9 @@
       <c r="F215" t="n">
         <v>1.1275</v>
       </c>
+      <c r="G215" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5624,6 +6271,9 @@
       <c r="F216" t="n">
         <v>1.1373</v>
       </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5648,6 +6298,9 @@
       <c r="F217" t="n">
         <v>1.1333</v>
       </c>
+      <c r="G217" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5672,6 +6325,9 @@
       <c r="F218" t="n">
         <v>1.1373</v>
       </c>
+      <c r="G218" t="n">
+        <v>-1.52</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5696,6 +6352,9 @@
       <c r="F219" t="n">
         <v>1.1245</v>
       </c>
+      <c r="G219" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5720,6 +6379,9 @@
       <c r="F220" t="n">
         <v>1.1206</v>
       </c>
+      <c r="G220" t="n">
+        <v>-0.95</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5744,6 +6406,9 @@
       <c r="F221" t="n">
         <v>1.1196</v>
       </c>
+      <c r="G221" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5768,6 +6433,9 @@
       <c r="F222" t="n">
         <v>1.1226</v>
       </c>
+      <c r="G222" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5792,6 +6460,9 @@
       <c r="F223" t="n">
         <v>1.1196</v>
       </c>
+      <c r="G223" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5816,6 +6487,9 @@
       <c r="F224" t="n">
         <v>1.1216</v>
       </c>
+      <c r="G224" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5840,6 +6514,9 @@
       <c r="F225" t="n">
         <v>1.1275</v>
       </c>
+      <c r="G225" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5864,6 +6541,9 @@
       <c r="F226" t="n">
         <v>1.1343</v>
       </c>
+      <c r="G226" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5888,6 +6568,9 @@
       <c r="F227" t="n">
         <v>1.1373</v>
       </c>
+      <c r="G227" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5912,6 +6595,9 @@
       <c r="F228" t="n">
         <v>1.1147</v>
       </c>
+      <c r="G228" t="n">
+        <v>-2.15</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5936,6 +6622,9 @@
       <c r="F229" t="n">
         <v>1.1088</v>
       </c>
+      <c r="G229" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5960,6 +6649,9 @@
       <c r="F230" t="n">
         <v>1.1118</v>
       </c>
+      <c r="G230" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5984,6 +6676,9 @@
       <c r="F231" t="n">
         <v>1.1059</v>
       </c>
+      <c r="G231" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6008,6 +6703,9 @@
       <c r="F232" t="n">
         <v>1.1245</v>
       </c>
+      <c r="G232" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6032,6 +6730,9 @@
       <c r="F233" t="n">
         <v>1.1275</v>
       </c>
+      <c r="G233" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6056,6 +6757,9 @@
       <c r="F234" t="n">
         <v>1.1235</v>
       </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6080,6 +6784,9 @@
       <c r="F235" t="n">
         <v>1.1275</v>
       </c>
+      <c r="G235" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6104,6 +6811,9 @@
       <c r="F236" t="n">
         <v>1.1353</v>
       </c>
+      <c r="G236" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6128,6 +6838,9 @@
       <c r="F237" t="n">
         <v>1.1441</v>
       </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6152,6 +6865,9 @@
       <c r="F238" t="n">
         <v>1.148</v>
       </c>
+      <c r="G238" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6176,6 +6892,9 @@
       <c r="F239" t="n">
         <v>1.1569</v>
       </c>
+      <c r="G239" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6200,6 +6919,9 @@
       <c r="F240" t="n">
         <v>1.1657</v>
       </c>
+      <c r="G240" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6224,6 +6946,9 @@
       <c r="F241" t="n">
         <v>1.1637</v>
       </c>
+      <c r="G241" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6248,6 +6973,9 @@
       <c r="F242" t="n">
         <v>1.1647</v>
       </c>
+      <c r="G242" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6272,6 +7000,9 @@
       <c r="F243" t="n">
         <v>1.1577</v>
       </c>
+      <c r="G243" t="n">
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6296,6 +7027,9 @@
       <c r="F244" t="n">
         <v>1.1498</v>
       </c>
+      <c r="G244" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6320,6 +7054,9 @@
       <c r="F245" t="n">
         <v>1.1548</v>
       </c>
+      <c r="G245" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6344,6 +7081,9 @@
       <c r="F246" t="n">
         <v>1.1577</v>
       </c>
+      <c r="G246" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6368,6 +7108,9 @@
       <c r="F247" t="n">
         <v>1.1488</v>
       </c>
+      <c r="G247" t="n">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6392,6 +7135,9 @@
       <c r="F248" t="n">
         <v>1.1438</v>
       </c>
+      <c r="G248" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6416,6 +7162,9 @@
       <c r="F249" t="n">
         <v>1.1448</v>
       </c>
+      <c r="G249" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6440,6 +7189,9 @@
       <c r="F250" t="n">
         <v>1.1468</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6464,6 +7216,9 @@
       <c r="F251" t="n">
         <v>1.1577</v>
       </c>
+      <c r="G251" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6488,6 +7243,9 @@
       <c r="F252" t="n">
         <v>1.1577</v>
       </c>
+      <c r="G252" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6512,6 +7270,9 @@
       <c r="F253" t="n">
         <v>1.1498</v>
       </c>
+      <c r="G253" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6536,6 +7297,9 @@
       <c r="F254" t="n">
         <v>1.1627</v>
       </c>
+      <c r="G254" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6560,6 +7324,9 @@
       <c r="F255" t="n">
         <v>1.1667</v>
       </c>
+      <c r="G255" t="n">
+        <v>-0.59</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6584,6 +7351,9 @@
       <c r="F256" t="n">
         <v>1.1349</v>
       </c>
+      <c r="G256" t="n">
+        <v>-2.21</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6608,6 +7378,9 @@
       <c r="F257" t="n">
         <v>1.126</v>
       </c>
+      <c r="G257" t="n">
+        <v>-1.39</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6632,6 +7405,9 @@
       <c r="F258" t="n">
         <v>1.1161</v>
       </c>
+      <c r="G258" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6656,6 +7432,9 @@
       <c r="F259" t="n">
         <v>1.12</v>
       </c>
+      <c r="G259" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6680,6 +7459,9 @@
       <c r="F260" t="n">
         <v>1.124</v>
       </c>
+      <c r="G260" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6704,6 +7486,9 @@
       <c r="F261" t="n">
         <v>1.123</v>
       </c>
+      <c r="G261" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6728,6 +7513,9 @@
       <c r="F262" t="n">
         <v>1.1101</v>
       </c>
+      <c r="G262" t="n">
+        <v>-1.23</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6752,6 +7540,9 @@
       <c r="F263" t="n">
         <v>1.0933</v>
       </c>
+      <c r="G263" t="n">
+        <v>-1.16</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6776,6 +7567,9 @@
       <c r="F264" t="n">
         <v>1.1002</v>
       </c>
+      <c r="G264" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6800,6 +7594,9 @@
       <c r="F265" t="n">
         <v>1.1141</v>
       </c>
+      <c r="G265" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6824,6 +7621,9 @@
       <c r="F266" t="n">
         <v>1.12</v>
       </c>
+      <c r="G266" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6848,6 +7648,9 @@
       <c r="F267" t="n">
         <v>1.122</v>
       </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6872,6 +7675,9 @@
       <c r="F268" t="n">
         <v>1.127</v>
       </c>
+      <c r="G268" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6896,6 +7702,9 @@
       <c r="F269" t="n">
         <v>1.1161</v>
       </c>
+      <c r="G269" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6920,6 +7729,9 @@
       <c r="F270" t="n">
         <v>1.1002</v>
       </c>
+      <c r="G270" t="n">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6944,6 +7756,9 @@
       <c r="F271" t="n">
         <v>1.1111</v>
       </c>
+      <c r="G271" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6968,6 +7783,9 @@
       <c r="F272" t="n">
         <v>1.1121</v>
       </c>
+      <c r="G272" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6992,6 +7810,9 @@
       <c r="F273" t="n">
         <v>1.126</v>
       </c>
+      <c r="G273" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7016,6 +7837,9 @@
       <c r="F274" t="n">
         <v>1.1181</v>
       </c>
+      <c r="G274" t="n">
+        <v>-1.83</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7040,6 +7864,9 @@
       <c r="F275" t="n">
         <v>1.1131</v>
       </c>
+      <c r="G275" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7064,6 +7891,9 @@
       <c r="F276" t="n">
         <v>1.1151</v>
       </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7088,6 +7918,9 @@
       <c r="F277" t="n">
         <v>1.1181</v>
       </c>
+      <c r="G277" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7112,6 +7945,9 @@
       <c r="F278" t="n">
         <v>1.119</v>
       </c>
+      <c r="G278" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7136,6 +7972,9 @@
       <c r="F279" t="n">
         <v>1.127</v>
       </c>
+      <c r="G279" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7160,6 +7999,9 @@
       <c r="F280" t="n">
         <v>1.1319</v>
       </c>
+      <c r="G280" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7184,6 +8026,9 @@
       <c r="F281" t="n">
         <v>1.129</v>
       </c>
+      <c r="G281" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7208,6 +8053,9 @@
       <c r="F282" t="n">
         <v>1.129</v>
       </c>
+      <c r="G282" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7232,6 +8080,9 @@
       <c r="F283" t="n">
         <v>1.1329</v>
       </c>
+      <c r="G283" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7256,6 +8107,9 @@
       <c r="F284" t="n">
         <v>1.1329</v>
       </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7280,6 +8134,9 @@
       <c r="F285" t="n">
         <v>1.131</v>
       </c>
+      <c r="G285" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7304,6 +8161,9 @@
       <c r="F286" t="n">
         <v>1.122</v>
       </c>
+      <c r="G286" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7328,6 +8188,9 @@
       <c r="F287" t="n">
         <v>1.121</v>
       </c>
+      <c r="G287" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7352,6 +8215,9 @@
       <c r="F288" t="n">
         <v>1.1111</v>
       </c>
+      <c r="G288" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7376,6 +8242,9 @@
       <c r="F289" t="n">
         <v>1.1161</v>
       </c>
+      <c r="G289" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7400,6 +8269,9 @@
       <c r="F290" t="n">
         <v>1.1181</v>
       </c>
+      <c r="G290" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7424,6 +8296,9 @@
       <c r="F291" t="n">
         <v>1.126</v>
       </c>
+      <c r="G291" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7448,6 +8323,9 @@
       <c r="F292" t="n">
         <v>1.123</v>
       </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7472,6 +8350,9 @@
       <c r="F293" t="n">
         <v>1.122</v>
       </c>
+      <c r="G293" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7496,6 +8377,9 @@
       <c r="F294" t="n">
         <v>1.123</v>
       </c>
+      <c r="G294" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7520,6 +8404,9 @@
       <c r="F295" t="n">
         <v>1.127</v>
       </c>
+      <c r="G295" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7544,6 +8431,9 @@
       <c r="F296" t="n">
         <v>1.127</v>
       </c>
+      <c r="G296" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7568,6 +8458,9 @@
       <c r="F297" t="n">
         <v>1.12</v>
       </c>
+      <c r="G297" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7592,6 +8485,9 @@
       <c r="F298" t="n">
         <v>1.119</v>
       </c>
+      <c r="G298" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7616,6 +8512,9 @@
       <c r="F299" t="n">
         <v>1.127</v>
       </c>
+      <c r="G299" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7640,6 +8539,9 @@
       <c r="F300" t="n">
         <v>1.128</v>
       </c>
+      <c r="G300" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7664,6 +8566,9 @@
       <c r="F301" t="n">
         <v>1.134</v>
       </c>
+      <c r="G301" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7688,6 +8593,9 @@
       <c r="F302" t="n">
         <v>1.142</v>
       </c>
+      <c r="G302" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7712,6 +8620,9 @@
       <c r="F303" t="n">
         <v>1.143</v>
       </c>
+      <c r="G303" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7736,6 +8647,9 @@
       <c r="F304" t="n">
         <v>1.144</v>
       </c>
+      <c r="G304" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7760,6 +8674,9 @@
       <c r="F305" t="n">
         <v>1.149</v>
       </c>
+      <c r="G305" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7784,6 +8701,9 @@
       <c r="F306" t="n">
         <v>1.142</v>
       </c>
+      <c r="G306" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7808,6 +8728,9 @@
       <c r="F307" t="n">
         <v>1.146</v>
       </c>
+      <c r="G307" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7832,6 +8755,9 @@
       <c r="F308" t="n">
         <v>1.152</v>
       </c>
+      <c r="G308" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7856,6 +8782,9 @@
       <c r="F309" t="n">
         <v>1.155</v>
       </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7880,6 +8809,9 @@
       <c r="F310" t="n">
         <v>1.156</v>
       </c>
+      <c r="G310" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7904,6 +8836,9 @@
       <c r="F311" t="n">
         <v>1.153</v>
       </c>
+      <c r="G311" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7928,6 +8863,9 @@
       <c r="F312" t="n">
         <v>1.154</v>
       </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7952,6 +8890,9 @@
       <c r="F313" t="n">
         <v>1.154</v>
       </c>
+      <c r="G313" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7976,6 +8917,9 @@
       <c r="F314" t="n">
         <v>1.16</v>
       </c>
+      <c r="G314" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8000,6 +8944,9 @@
       <c r="F315" t="n">
         <v>1.161</v>
       </c>
+      <c r="G315" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8024,6 +8971,9 @@
       <c r="F316" t="n">
         <v>1.085</v>
       </c>
+      <c r="G316" t="n">
+        <v>-4.7</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8048,6 +8998,9 @@
       <c r="F317" t="n">
         <v>1.112</v>
       </c>
+      <c r="G317" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8072,6 +9025,9 @@
       <c r="F318" t="n">
         <v>1.108</v>
       </c>
+      <c r="G318" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8096,6 +9052,9 @@
       <c r="F319" t="n">
         <v>1.127</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8120,6 +9079,9 @@
       <c r="F320" t="n">
         <v>1.127</v>
       </c>
+      <c r="G320" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8144,6 +9106,9 @@
       <c r="F321" t="n">
         <v>1.131</v>
       </c>
+      <c r="G321" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8168,6 +9133,9 @@
       <c r="F322" t="n">
         <v>1.138</v>
       </c>
+      <c r="G322" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8192,6 +9160,9 @@
       <c r="F323" t="n">
         <v>1.149</v>
       </c>
+      <c r="G323" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8216,6 +9187,9 @@
       <c r="F324" t="n">
         <v>1.154</v>
       </c>
+      <c r="G324" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8240,6 +9214,9 @@
       <c r="F325" t="n">
         <v>1.159</v>
       </c>
+      <c r="G325" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8264,6 +9241,9 @@
       <c r="F326" t="n">
         <v>1.16</v>
       </c>
+      <c r="G326" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8288,6 +9268,9 @@
       <c r="F327" t="n">
         <v>1.157</v>
       </c>
+      <c r="G327" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8312,6 +9295,9 @@
       <c r="F328" t="n">
         <v>1.159</v>
       </c>
+      <c r="G328" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8336,6 +9322,9 @@
       <c r="F329" t="n">
         <v>1.162</v>
       </c>
+      <c r="G329" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8360,6 +9349,9 @@
       <c r="F330" t="n">
         <v>1.168</v>
       </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8384,6 +9376,9 @@
       <c r="F331" t="n">
         <v>1.169</v>
       </c>
+      <c r="G331" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8408,6 +9403,9 @@
       <c r="F332" t="n">
         <v>1.173</v>
       </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8432,6 +9430,9 @@
       <c r="F333" t="n">
         <v>1.153</v>
       </c>
+      <c r="G333" t="n">
+        <v>-1.87</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8456,6 +9457,9 @@
       <c r="F334" t="n">
         <v>1.149</v>
       </c>
+      <c r="G334" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8479,6 +9483,198 @@
       </c>
       <c r="F335" t="n">
         <v>1.155</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>20250508</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.164</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1.181</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>20250512</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1.181</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>20250513</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>20250514</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>20250515</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.198</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>20250516</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>SH563020</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.181</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
